--- a/CLINICA KENNEDY POLICENTRO/REPOSICIONES/20230300275 PLACA PHILOS.xlsx
+++ b/CLINICA KENNEDY POLICENTRO/REPOSICIONES/20230300275 PLACA PHILOS.xlsx
@@ -1,47 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CLINICA KENNEDY POLICENTRO\REPOSICIONES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CLINICA KENNEDY POLICENTRO\REPOSICIONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71F0E8-280C-44B0-BCC6-0EC1203A54CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A4BB3F9-55BE-4ED3-A8CA-7FDC55571F10}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{B7D56EEE-3C35-4066-B6FC-265450E37609}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{79DE30ED-6FDF-42F2-9A8D-0A9B2B5D0162}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{CC8DCA69-D60C-4D9B-AA6C-66EB20B68466}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{84AB1438-A664-49C2-922B-844754551E61}">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="507">
   <si>
     <t>REGISTRO DE NOTA DE ENTREGA</t>
   </si>
@@ -208,15 +196,9 @@
     <t>NOMBRE MÉDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">DR VARGAS </t>
-  </si>
-  <si>
     <t>NOMBRE PACIENTE</t>
   </si>
   <si>
-    <t>BETTY WONG GUERRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPO DE SEGURO </t>
   </si>
   <si>
@@ -241,9 +223,6 @@
     <t>Ti-SF-642.003</t>
   </si>
   <si>
-    <t>PLACA BLOQ. PHILOS  3.5mm*3 ORIF TIT.</t>
-  </si>
-  <si>
     <t>T500935024</t>
   </si>
   <si>
@@ -286,19 +265,1408 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>210126939</t>
+    <t>DR BACHIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALERO CALVINO JAIME ANTONIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00AM </t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>PRECIO TOTAL</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*3 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.004</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*4 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.005</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*5 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.006</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*6 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.007</t>
+  </si>
+  <si>
+    <t>KAI13521</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*7 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.008</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*8 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.009</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*9 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.010</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*10 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-642.012</t>
+  </si>
+  <si>
+    <t>PLACA BLOQ. PHILOS 3.5mm*12 ORIF TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.002R</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*02 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.004R</t>
+  </si>
+  <si>
+    <t>220242830</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*4 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.006R</t>
+  </si>
+  <si>
+    <t>220242831</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*6 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.008R</t>
+  </si>
+  <si>
+    <t>220242832</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*8 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.010R</t>
+  </si>
+  <si>
+    <t>220242833</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*10 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.012R</t>
+  </si>
+  <si>
+    <t>220242834</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*12 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.014R</t>
+  </si>
+  <si>
+    <t>220242835</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*14 ORIF DER TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.002L</t>
+  </si>
+  <si>
+    <t>220343989</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*2 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.004L</t>
+  </si>
+  <si>
+    <t>220242824</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*4 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.006L</t>
+  </si>
+  <si>
+    <t>220242825</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*6 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.008L</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*8 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.010L</t>
+  </si>
+  <si>
+    <t>220242827</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*10 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.012L</t>
+  </si>
+  <si>
+    <t>220242828</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*12 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-SF-734.014L</t>
+  </si>
+  <si>
+    <t>220242829</t>
+  </si>
+  <si>
+    <t>PLACA  BLOQ. HUMERO PROXIMAL  PERIARTICULAR 3.5mm*14 ORIF IZQ TIT.</t>
+  </si>
+  <si>
+    <t>Ti-102.212</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*12mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.214</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*14mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.216</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*16mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.218</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*18mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*20mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*22mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*24mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*26mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*28mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*30mm TITANIO </t>
+  </si>
+  <si>
+    <t>H2106897</t>
+  </si>
+  <si>
+    <t>Ti-102.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO CORTICAL 3.5*32mm TITANIO </t>
+  </si>
+  <si>
+    <t>Ti-102.234</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*34mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.236</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*36mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.238</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*38mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.240</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*40mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.242</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*42mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.244</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*44mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.246</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*46mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.248</t>
+  </si>
+  <si>
+    <t>2200079727</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*48mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.250</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*50mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.255</t>
+  </si>
+  <si>
+    <t>2100027758</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*55mm TITANIO</t>
+  </si>
+  <si>
+    <t>Ti-102.260</t>
+  </si>
+  <si>
+    <t>210002759</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*60mm TITANIO</t>
+  </si>
+  <si>
+    <t>55903565YN</t>
+  </si>
+  <si>
+    <t>1900047462</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*65mm TITANIO</t>
+  </si>
+  <si>
+    <t>55903570YN</t>
+  </si>
+  <si>
+    <t>1900047727</t>
+  </si>
+  <si>
+    <t>TORNILLO CORTICAL 3.5*70mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*12mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*14mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935016</t>
+  </si>
+  <si>
+    <t>2100017399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*16mm TITANIO </t>
+  </si>
+  <si>
+    <t>2300058823</t>
+  </si>
+  <si>
+    <t>T500935018</t>
+  </si>
+  <si>
+    <t>2100017484</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*18mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935020</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*20mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935022</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*22mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935028</t>
+  </si>
+  <si>
+    <t>G200400784</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*28mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935030</t>
+  </si>
+  <si>
+    <t>J2104590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*30mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935032</t>
+  </si>
+  <si>
+    <t>B2100005</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*32mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935036</t>
+  </si>
+  <si>
+    <t>M180400712</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*36mm TITANIO</t>
+  </si>
+  <si>
+    <t>2300019346</t>
+  </si>
+  <si>
+    <t>T500935038</t>
+  </si>
+  <si>
+    <t>J2104467</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*38mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935040</t>
+  </si>
+  <si>
+    <t>2200184355</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*40mm TITANIO</t>
+  </si>
+  <si>
+    <t>2300059250</t>
+  </si>
+  <si>
+    <t>T500935042</t>
+  </si>
+  <si>
+    <t>K180400706</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*42mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935044</t>
+  </si>
+  <si>
+    <t>M180400715</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*44mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935045</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*45mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935046</t>
+  </si>
+  <si>
+    <t>E190400736</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*46mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935048</t>
+  </si>
+  <si>
+    <t>K180400719</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*48mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935050</t>
+  </si>
+  <si>
+    <t>C2103692</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*50mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935054</t>
+  </si>
+  <si>
+    <t>G180400701</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*54mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935060</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*60mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935065</t>
+  </si>
+  <si>
+    <t>TORNILLO DE BLOQUEO 3.5*65mm TITANIO</t>
+  </si>
+  <si>
+    <t>T500935070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*70mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935075</t>
+  </si>
+  <si>
+    <t>2100010980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*75mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935080</t>
+  </si>
+  <si>
+    <t>2000110404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*80mm TITANIO </t>
+  </si>
+  <si>
+    <t>T500935085</t>
+  </si>
+  <si>
+    <t>2100024931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO DE BLOQUEO 3.5*85mm TITANIO </t>
+  </si>
+  <si>
+    <t>2000112135</t>
+  </si>
+  <si>
+    <t>040030020</t>
+  </si>
+  <si>
+    <t>2104461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*20mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030025</t>
+  </si>
+  <si>
+    <t>K200400304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*25mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030030</t>
+  </si>
+  <si>
+    <t>M200400313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*30mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030035</t>
+  </si>
+  <si>
+    <t>1405040036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*35mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030040</t>
+  </si>
+  <si>
+    <t>M180400312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*40mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030045</t>
+  </si>
+  <si>
+    <t>H2102855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*45mm TITANIO </t>
+  </si>
+  <si>
+    <t>040030050</t>
+  </si>
+  <si>
+    <t>G200400307</t>
+  </si>
+  <si>
+    <t>TORNILLO ESPONJOSO 4.0*50mm TITANIO</t>
+  </si>
+  <si>
+    <t>040030055</t>
+  </si>
+  <si>
+    <t>H2104250</t>
+  </si>
+  <si>
+    <t>TORNILLO ESPONJOSO 4.0*55mm TITANIO</t>
+  </si>
+  <si>
+    <t>040030060</t>
+  </si>
+  <si>
+    <t>H200400312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNILLO ESPONJOSO 4.0*60mm TITANIO </t>
+  </si>
+  <si>
+    <t>TI-115.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARANDELA 3.5mm TITANIO </t>
+  </si>
+  <si>
+    <t>35-PLHU-003L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROXIMAL HUMERUS PLATE ARIX  3 HOLES 90mm LEFT </t>
+  </si>
+  <si>
+    <t>35-PLHU-004L</t>
+  </si>
+  <si>
+    <t>180212-A5051</t>
+  </si>
+  <si>
+    <t>PROXIMAL HUMERUS PLATE ARIX  4 HOLES 102mm LEFT</t>
+  </si>
+  <si>
+    <t>35-PLHU-005L</t>
+  </si>
+  <si>
+    <t>180118-A1751</t>
+  </si>
+  <si>
+    <t>PROXIMAL HUMERUS PLATE ARIX  5 HOLES 114mm LEFT</t>
+  </si>
+  <si>
+    <t>35-PLHU-003R</t>
+  </si>
+  <si>
+    <t>180118-A1251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROXIMAL HUMERUS PLATE ARIX  3 HOLES 90mm RIGHT </t>
+  </si>
+  <si>
+    <t>35-PLHU-004R</t>
+  </si>
+  <si>
+    <t>180118-A1451</t>
+  </si>
+  <si>
+    <t>PROXIMAL HUMERUS PLATE ARIX  4 HOLES 102mm RIGHT</t>
+  </si>
+  <si>
+    <t>35-PLHU-005R</t>
+  </si>
+  <si>
+    <t>180118-A1651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROXIMAL HUMERUS PLATE ARIX 5 HOLES 114mm RIGHT </t>
+  </si>
+  <si>
+    <t>35L-SO-L20-TA</t>
+  </si>
+  <si>
+    <t>J211223-L022</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*20mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L22-TA</t>
+  </si>
+  <si>
+    <t>R211202-L018</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*22mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L24-TA</t>
+  </si>
+  <si>
+    <t>J211223-L024</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*24mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L26-TA</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*26mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L28-TA</t>
+  </si>
+  <si>
+    <t>J210525-L185</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*28mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L30-TA</t>
+  </si>
+  <si>
+    <t>R210826-L058</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*30mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L32-TA</t>
+  </si>
+  <si>
+    <t>J211223-L114</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*32mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L34-TA</t>
+  </si>
+  <si>
+    <t>R210826-L055</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*34mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L36-TA</t>
+  </si>
+  <si>
+    <t>R200422-L020</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*36mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L38-TA</t>
+  </si>
+  <si>
+    <t>J221215-L025</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*38mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L40-TA</t>
+  </si>
+  <si>
+    <t>J220112-L066</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*40mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L42-TA</t>
+  </si>
+  <si>
+    <t>J211125-L066</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*42mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L44-TA</t>
+  </si>
+  <si>
+    <t>J211022-L077</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*44mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L46-TA</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*46mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L48-TA</t>
+  </si>
+  <si>
+    <t>J211015-L034</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*48mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L50-TA</t>
+  </si>
+  <si>
+    <t>R220112-L067</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*50mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L52-TA</t>
+  </si>
+  <si>
+    <t>J180321-L028</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*52mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L56-TA</t>
+  </si>
+  <si>
+    <t>J180321-L027</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*56mm</t>
+  </si>
+  <si>
+    <t>35L-SO-L60-TA</t>
+  </si>
+  <si>
+    <t>J170801-L897</t>
+  </si>
+  <si>
+    <t>LOCKING CORTICAL STARIX GREEN 3.5*60mm</t>
+  </si>
+  <si>
+    <t>35-SO-L20-T</t>
+  </si>
+  <si>
+    <t>J211125-L067</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*20mm</t>
+  </si>
+  <si>
+    <t>35-SO-L22-T</t>
+  </si>
+  <si>
+    <t>J210907-L102</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*22mm</t>
+  </si>
+  <si>
+    <t>35-SO-L24-T</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*24mm</t>
+  </si>
+  <si>
+    <t>35-SO-L26-T</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*26mm</t>
+  </si>
+  <si>
+    <t>35-SO-L28-T</t>
+  </si>
+  <si>
+    <t>J210907-L104</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*28mm</t>
+  </si>
+  <si>
+    <t>35-SO-L30-T</t>
+  </si>
+  <si>
+    <t>J210907-L105</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*30mm</t>
+  </si>
+  <si>
+    <t>35-SO-L32-T</t>
+  </si>
+  <si>
+    <t>J210907-L106</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*32mm</t>
+  </si>
+  <si>
+    <t>35-SO-L34-T</t>
+  </si>
+  <si>
+    <t>J210907-L107</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*34mm</t>
+  </si>
+  <si>
+    <t>35-SO-L36-T</t>
+  </si>
+  <si>
+    <t>J220620-L130</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*36mm</t>
+  </si>
+  <si>
+    <t>35-SO-L38-T</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*38mm</t>
+  </si>
+  <si>
+    <t>35-SO-L40-T</t>
+  </si>
+  <si>
+    <t>NON LOCKING CORTICAL SILVER STARIX 3.5*40mm</t>
+  </si>
+  <si>
+    <t>40L-SA-020-TA</t>
+  </si>
+  <si>
+    <t>171120-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 20mm </t>
+  </si>
+  <si>
+    <t>40L-SA-022-TA</t>
+  </si>
+  <si>
+    <t>171120-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 22mm </t>
+  </si>
+  <si>
+    <t>40L-SA-024-TA</t>
+  </si>
+  <si>
+    <t>171121-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 24mm </t>
+  </si>
+  <si>
+    <t>40L-SA-026-TA</t>
+  </si>
+  <si>
+    <t>171109-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 26mm </t>
+  </si>
+  <si>
+    <t>40L-SA-028-TA</t>
+  </si>
+  <si>
+    <t>171103-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 28mm </t>
+  </si>
+  <si>
+    <t>40L-SA-030-TA</t>
+  </si>
+  <si>
+    <t>171123-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 30mm </t>
+  </si>
+  <si>
+    <t>40L-SA-032-TA</t>
+  </si>
+  <si>
+    <t>171113-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 32mm </t>
+  </si>
+  <si>
+    <t>40L-SA-034-TA</t>
+  </si>
+  <si>
+    <t>180319-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 34mm </t>
+  </si>
+  <si>
+    <t>40L-SA-036-TA</t>
+  </si>
+  <si>
+    <t>171122-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 36mm </t>
+  </si>
+  <si>
+    <t>40L-SA-038-TA</t>
+  </si>
+  <si>
+    <t>171109-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 38mm </t>
+  </si>
+  <si>
+    <t>40L-SA-040-TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 40mm </t>
+  </si>
+  <si>
+    <t>40L-SA-042-TA</t>
+  </si>
+  <si>
+    <t>171020-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 42mm </t>
+  </si>
+  <si>
+    <t>40L-SA-044-TA</t>
+  </si>
+  <si>
+    <t>171124-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 44mm </t>
+  </si>
+  <si>
+    <t>40L-SA-046-TA</t>
+  </si>
+  <si>
+    <t>171101-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 46mm </t>
+  </si>
+  <si>
+    <t>40L-SA-048-TA</t>
+  </si>
+  <si>
+    <t>171102-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 48mm </t>
+  </si>
+  <si>
+    <t>40L-SA-050-TA</t>
+  </si>
+  <si>
+    <t>171106-A0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 50mm </t>
+  </si>
+  <si>
+    <t>40L-SA-052-TA</t>
+  </si>
+  <si>
+    <t>171116-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 52mm </t>
+  </si>
+  <si>
+    <t>40L-SA-056-TA</t>
+  </si>
+  <si>
+    <t>171115-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 56mm </t>
+  </si>
+  <si>
+    <t>40L-SA-060-TA</t>
+  </si>
+  <si>
+    <t>171117-A0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANCELLOUS LOCKING SCREW STARIX 4.0* 60mm </t>
+  </si>
+  <si>
+    <t>2100022698</t>
+  </si>
+  <si>
+    <t>IVA 15%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>INSTRUMENTAL PROXIMAL HUMERUS 3.5/4.0  # 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTIDAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPCION </t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>MANGOS ATORNILLADOR</t>
+  </si>
+  <si>
+    <t>111-063</t>
+  </si>
+  <si>
+    <t>MEDIDOR DE PROFUNDIDAD</t>
+  </si>
+  <si>
+    <t>111-181</t>
+  </si>
+  <si>
+    <t>DRILL GUIA ANGULO VARIABLE 3.5</t>
+  </si>
+  <si>
+    <t>111-157</t>
+  </si>
+  <si>
+    <t>GUIA ANGULO VARIABLE 3.5</t>
+  </si>
+  <si>
+    <t>111-172</t>
+  </si>
+  <si>
+    <t>BROCAS LARGAS 2.7 (AO)</t>
+  </si>
+  <si>
+    <t>112-35-704</t>
+  </si>
+  <si>
+    <t>DISPENSADOR PINES</t>
+  </si>
+  <si>
+    <t>111-096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIAS BLOQUEO </t>
+  </si>
+  <si>
+    <t>111-173</t>
+  </si>
+  <si>
+    <t>GUIA DOBLE  FIJA-ANGULO VARIABLE 3.5</t>
+  </si>
+  <si>
+    <t>111-089</t>
+  </si>
+  <si>
+    <t>ATORNILLADORES ANCLAJE RAPIDO</t>
+  </si>
+  <si>
+    <t>113-HF-616</t>
+  </si>
+  <si>
+    <t>PINZA DE SUJECION</t>
+  </si>
+  <si>
+    <t>114-009</t>
+  </si>
+  <si>
+    <t>BLOQUE GUIA DE BROCA IZQ</t>
+  </si>
+  <si>
+    <t>111-175-L</t>
+  </si>
+  <si>
+    <t>BLOQUE GUIA DE BROCA DER</t>
+  </si>
+  <si>
+    <t>111-175-R</t>
+  </si>
+  <si>
+    <t>INSTRUMENTAL 3.5 IRENE # 1</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>BANDEJA SUPERIOR</t>
+  </si>
+  <si>
+    <t>MANGO TORQUE DORADO 1.5 N.m</t>
+  </si>
+  <si>
+    <t>ATORNILLADOR DE  ANCLAJE RAPIDO STARDRIVE 3.5</t>
+  </si>
+  <si>
+    <t>ATORNILLADOR  DE  ANCLAJE RAPIDO HEXAGONAL 3.5</t>
+  </si>
+  <si>
+    <t>MACHUELO DE ANCLAJE  RAPIDO ( TARRAJA)</t>
+  </si>
+  <si>
+    <t>ATORNILLADOR 3.5 BICELADO LARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCAS DE ANCLAJE RAPIDO 2.8MM CON TOPE </t>
+  </si>
+  <si>
+    <t>BROCA 2.7</t>
+  </si>
+  <si>
+    <t>MANCHUELO EN T (TARRAJA)</t>
+  </si>
+  <si>
+    <t>PINZA REDUCTORA  DE PUNTA CREMALLERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGO EN T ANCLAJE RAPIDO </t>
+  </si>
+  <si>
+    <t>GUIAS DE BLOQUEO 2.8</t>
+  </si>
+  <si>
+    <t>GUIAS DE BLOQUEO 1.5</t>
+  </si>
+  <si>
+    <t>LLAVES EN L GRANDE 4.5</t>
+  </si>
+  <si>
+    <t>LLAVES EN L PEQUEÑA 2.5</t>
+  </si>
+  <si>
+    <t>SEPARADORES DE SENMILER</t>
+  </si>
+  <si>
+    <t>PINES</t>
+  </si>
+  <si>
+    <t>BANDEJA MEDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPARADORES MINIHOMAN ANCHOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPARADORES  MINIHOMAN ANGOSTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGO AZUL  ANCLAJE RAPIDO  </t>
+  </si>
+  <si>
+    <t>PLANTILLAS MEDIDORAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIAS BROCA 2,5 MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIAS BROCA  DOBLE 2.5/3.5MM </t>
+  </si>
+  <si>
+    <t>GUIA CENTRICA Y EXCENTRICA2.5 MM</t>
+  </si>
+  <si>
+    <t>MANCHUELO ANCLAJE RAPIDO  (TARRAJA)</t>
+  </si>
+  <si>
+    <t>BROCAS 3.5</t>
+  </si>
+  <si>
+    <t>BROCAS 3.2</t>
+  </si>
+  <si>
+    <t>BROCAS 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREFINA ( ESCAREADOR PARA  HUESO) ANCLAJE RAPIDO </t>
+  </si>
+  <si>
+    <t>DOBLADORAS DE PLACAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRACTOR  ANCLAJE RAPIDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVELLANADOR ANCLAJE RAPIDO </t>
+  </si>
+  <si>
+    <t>BANDEJA INFERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPARADORES DE VOLKMAN </t>
+  </si>
+  <si>
+    <t>DESPERIO FINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATORNILLADOR MANGO CAFÉ L 3.5 CON CAMISA </t>
+  </si>
+  <si>
+    <t>DESPERIO  MANGO AZUL ANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINZA DE REDUCCION VERBRUGGE </t>
+  </si>
+  <si>
+    <t>PINZAS REDUCTORAS CANGREJO ARANDELA</t>
+  </si>
+  <si>
+    <t>GANCHO REDUCTORES 3.5 MANGO AZUL</t>
+  </si>
+  <si>
+    <t>CURETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINZA REDUCTORA ESPAÑOLA CON CREMALLERA </t>
+  </si>
+  <si>
+    <t>GUBIA</t>
+  </si>
+  <si>
+    <t>ADAPTADORES ANCLAJE RAPIDO</t>
+  </si>
+  <si>
+    <t>LLAVE JACOBS</t>
+  </si>
+  <si>
+    <t>INTERCAMBIADOR DE BATERIA</t>
+  </si>
+  <si>
+    <t>PORTA BATERIA</t>
+  </si>
+  <si>
+    <t>$6097.50</t>
+  </si>
+  <si>
+    <t>$46.747.50</t>
+  </si>
+  <si>
+    <t>MOTOR AUXEN #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATERIAS ROJA #1 Y #2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="12">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +1839,48 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="RotisSansSerif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,8 +1911,26 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -672,13 +2098,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,15 +2284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,39 +2297,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -771,12 +2331,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,20 +2371,10 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -874,13 +2418,331 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda 2" xfId="2" xr:uid="{8BB09F73-AF96-4430-850F-7BF271EBCF23}"/>
+  <cellStyles count="109">
+    <cellStyle name="Millares 2" xfId="56"/>
+    <cellStyle name="Moneda [0] 2" xfId="3"/>
+    <cellStyle name="Moneda [0] 2 2" xfId="4"/>
+    <cellStyle name="Moneda [0] 2 2 2" xfId="91"/>
+    <cellStyle name="Moneda [0] 2 3" xfId="41"/>
+    <cellStyle name="Moneda [0] 2 3 2" xfId="81"/>
+    <cellStyle name="Moneda [0] 2 4" xfId="59"/>
+    <cellStyle name="Moneda [0] 2 4 2" xfId="85"/>
+    <cellStyle name="Moneda [0] 2 5" xfId="80"/>
+    <cellStyle name="Moneda [0] 3" xfId="12"/>
+    <cellStyle name="Moneda [0] 3 2" xfId="19"/>
+    <cellStyle name="Moneda [0] 3 3" xfId="73"/>
+    <cellStyle name="Moneda [0] 3 4" xfId="90"/>
+    <cellStyle name="Moneda [0] 4" xfId="17"/>
+    <cellStyle name="Moneda [0] 4 2" xfId="26"/>
+    <cellStyle name="Moneda [0] 4 2 2" xfId="36"/>
+    <cellStyle name="Moneda [0] 4 3" xfId="84"/>
+    <cellStyle name="Moneda [0] 5" xfId="16"/>
+    <cellStyle name="Moneda [0] 6" xfId="79"/>
+    <cellStyle name="Moneda 10" xfId="5"/>
+    <cellStyle name="Moneda 10 2" xfId="100"/>
+    <cellStyle name="Moneda 11" xfId="25"/>
+    <cellStyle name="Moneda 11 2" xfId="101"/>
+    <cellStyle name="Moneda 12" xfId="29"/>
+    <cellStyle name="Moneda 12 2" xfId="102"/>
+    <cellStyle name="Moneda 13" xfId="28"/>
+    <cellStyle name="Moneda 13 2" xfId="103"/>
+    <cellStyle name="Moneda 14" xfId="31"/>
+    <cellStyle name="Moneda 14 2" xfId="99"/>
+    <cellStyle name="Moneda 15" xfId="30"/>
+    <cellStyle name="Moneda 15 2" xfId="104"/>
+    <cellStyle name="Moneda 16" xfId="32"/>
+    <cellStyle name="Moneda 16 2" xfId="105"/>
+    <cellStyle name="Moneda 17" xfId="33"/>
+    <cellStyle name="Moneda 17 2" xfId="106"/>
+    <cellStyle name="Moneda 18" xfId="35"/>
+    <cellStyle name="Moneda 18 2" xfId="107"/>
+    <cellStyle name="Moneda 19" xfId="37"/>
+    <cellStyle name="Moneda 19 2" xfId="63"/>
+    <cellStyle name="Moneda 2" xfId="2"/>
+    <cellStyle name="Moneda 2 2" xfId="20"/>
+    <cellStyle name="Moneda 2 2 2" xfId="27"/>
+    <cellStyle name="Moneda 2 2 2 2" xfId="62"/>
+    <cellStyle name="Moneda 2 2 3" xfId="64"/>
+    <cellStyle name="Moneda 2 2 4" xfId="92"/>
+    <cellStyle name="Moneda 2 3" xfId="89"/>
+    <cellStyle name="Moneda 2 4" xfId="11"/>
+    <cellStyle name="Moneda 20" xfId="38"/>
+    <cellStyle name="Moneda 20 2" xfId="97"/>
+    <cellStyle name="Moneda 21" xfId="42"/>
+    <cellStyle name="Moneda 22" xfId="39"/>
+    <cellStyle name="Moneda 23" xfId="40"/>
+    <cellStyle name="Moneda 24" xfId="43"/>
+    <cellStyle name="Moneda 25" xfId="44"/>
+    <cellStyle name="Moneda 26" xfId="45"/>
+    <cellStyle name="Moneda 27" xfId="49"/>
+    <cellStyle name="Moneda 28" xfId="47"/>
+    <cellStyle name="Moneda 29" xfId="48"/>
+    <cellStyle name="Moneda 3" xfId="10"/>
+    <cellStyle name="Moneda 3 2" xfId="6"/>
+    <cellStyle name="Moneda 3 2 2" xfId="14"/>
+    <cellStyle name="Moneda 3 2 2 2" xfId="46"/>
+    <cellStyle name="Moneda 3 2 3" xfId="7"/>
+    <cellStyle name="Moneda 3 2 3 2" xfId="60"/>
+    <cellStyle name="Moneda 3 3" xfId="88"/>
+    <cellStyle name="Moneda 30" xfId="50"/>
+    <cellStyle name="Moneda 31" xfId="51"/>
+    <cellStyle name="Moneda 32" xfId="52"/>
+    <cellStyle name="Moneda 33" xfId="53"/>
+    <cellStyle name="Moneda 34" xfId="54"/>
+    <cellStyle name="Moneda 35" xfId="55"/>
+    <cellStyle name="Moneda 36" xfId="58"/>
+    <cellStyle name="Moneda 37" xfId="57"/>
+    <cellStyle name="Moneda 38" xfId="66"/>
+    <cellStyle name="Moneda 39" xfId="67"/>
+    <cellStyle name="Moneda 4" xfId="21"/>
+    <cellStyle name="Moneda 4 2" xfId="76"/>
+    <cellStyle name="Moneda 4 3" xfId="93"/>
+    <cellStyle name="Moneda 40" xfId="68"/>
+    <cellStyle name="Moneda 41" xfId="69"/>
+    <cellStyle name="Moneda 42" xfId="70"/>
+    <cellStyle name="Moneda 43" xfId="71"/>
+    <cellStyle name="Moneda 44" xfId="72"/>
+    <cellStyle name="Moneda 45" xfId="75"/>
+    <cellStyle name="Moneda 46" xfId="74"/>
+    <cellStyle name="Moneda 47" xfId="77"/>
+    <cellStyle name="Moneda 48" xfId="78"/>
+    <cellStyle name="Moneda 49" xfId="95"/>
+    <cellStyle name="Moneda 5" xfId="18"/>
+    <cellStyle name="Moneda 5 2" xfId="83"/>
+    <cellStyle name="Moneda 50" xfId="98"/>
+    <cellStyle name="Moneda 51" xfId="96"/>
+    <cellStyle name="Moneda 52" xfId="108"/>
+    <cellStyle name="Moneda 6" xfId="22"/>
+    <cellStyle name="Moneda 6 2" xfId="82"/>
+    <cellStyle name="Moneda 7" xfId="23"/>
+    <cellStyle name="Moneda 7 2" xfId="86"/>
+    <cellStyle name="Moneda 8" xfId="13"/>
+    <cellStyle name="Moneda 8 2" xfId="87"/>
+    <cellStyle name="Moneda 9" xfId="24"/>
+    <cellStyle name="Moneda 9 2" xfId="94"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E85A539A-526F-4A78-96EB-C1D4938A1299}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="9"/>
+    <cellStyle name="Normal 3 3" xfId="15"/>
+    <cellStyle name="Normal 4" xfId="34"/>
+    <cellStyle name="Porcentaje 2" xfId="65"/>
+    <cellStyle name="常规 4" xfId="61"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1238,879 +3100,5640 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F17BF-2017-4B57-91E1-EED9E1B68758}">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="86.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="256" width="11.42578125" style="1"/>
-    <col min="257" max="257" width="13.140625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.453125" style="1"/>
+    <col min="10" max="10" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="256" width="11.453125" style="1"/>
+    <col min="257" max="257" width="13.1796875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="15.1796875" style="1" customWidth="1"/>
     <col min="259" max="259" width="42" style="1" customWidth="1"/>
-    <col min="260" max="260" width="11.42578125" style="1"/>
-    <col min="261" max="261" width="13.140625" style="1" customWidth="1"/>
-    <col min="262" max="512" width="11.42578125" style="1"/>
-    <col min="513" max="513" width="13.140625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="15.140625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="11.453125" style="1"/>
+    <col min="261" max="261" width="13.1796875" style="1" customWidth="1"/>
+    <col min="262" max="512" width="11.453125" style="1"/>
+    <col min="513" max="513" width="13.1796875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="15.1796875" style="1" customWidth="1"/>
     <col min="515" max="515" width="42" style="1" customWidth="1"/>
-    <col min="516" max="516" width="11.42578125" style="1"/>
-    <col min="517" max="517" width="13.140625" style="1" customWidth="1"/>
-    <col min="518" max="768" width="11.42578125" style="1"/>
-    <col min="769" max="769" width="13.140625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="15.140625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="11.453125" style="1"/>
+    <col min="517" max="517" width="13.1796875" style="1" customWidth="1"/>
+    <col min="518" max="768" width="11.453125" style="1"/>
+    <col min="769" max="769" width="13.1796875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="15.1796875" style="1" customWidth="1"/>
     <col min="771" max="771" width="42" style="1" customWidth="1"/>
-    <col min="772" max="772" width="11.42578125" style="1"/>
-    <col min="773" max="773" width="13.140625" style="1" customWidth="1"/>
-    <col min="774" max="1024" width="11.42578125" style="1"/>
-    <col min="1025" max="1025" width="13.140625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="15.140625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="11.453125" style="1"/>
+    <col min="773" max="773" width="13.1796875" style="1" customWidth="1"/>
+    <col min="774" max="1024" width="11.453125" style="1"/>
+    <col min="1025" max="1025" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="15.1796875" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="42" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.42578125" style="1"/>
-    <col min="1029" max="1029" width="13.140625" style="1" customWidth="1"/>
-    <col min="1030" max="1280" width="11.42578125" style="1"/>
-    <col min="1281" max="1281" width="13.140625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="15.140625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.453125" style="1"/>
+    <col min="1029" max="1029" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1030" max="1280" width="11.453125" style="1"/>
+    <col min="1281" max="1281" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="15.1796875" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="42" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.42578125" style="1"/>
-    <col min="1285" max="1285" width="13.140625" style="1" customWidth="1"/>
-    <col min="1286" max="1536" width="11.42578125" style="1"/>
-    <col min="1537" max="1537" width="13.140625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="15.140625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.453125" style="1"/>
+    <col min="1285" max="1285" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1286" max="1536" width="11.453125" style="1"/>
+    <col min="1537" max="1537" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="15.1796875" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="42" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.42578125" style="1"/>
-    <col min="1541" max="1541" width="13.140625" style="1" customWidth="1"/>
-    <col min="1542" max="1792" width="11.42578125" style="1"/>
-    <col min="1793" max="1793" width="13.140625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="15.140625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.453125" style="1"/>
+    <col min="1541" max="1541" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1542" max="1792" width="11.453125" style="1"/>
+    <col min="1793" max="1793" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="15.1796875" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="42" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.42578125" style="1"/>
-    <col min="1797" max="1797" width="13.140625" style="1" customWidth="1"/>
-    <col min="1798" max="2048" width="11.42578125" style="1"/>
-    <col min="2049" max="2049" width="13.140625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="15.140625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.453125" style="1"/>
+    <col min="1797" max="1797" width="13.1796875" style="1" customWidth="1"/>
+    <col min="1798" max="2048" width="11.453125" style="1"/>
+    <col min="2049" max="2049" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="15.1796875" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="42" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.42578125" style="1"/>
-    <col min="2053" max="2053" width="13.140625" style="1" customWidth="1"/>
-    <col min="2054" max="2304" width="11.42578125" style="1"/>
-    <col min="2305" max="2305" width="13.140625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="15.140625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.453125" style="1"/>
+    <col min="2053" max="2053" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2054" max="2304" width="11.453125" style="1"/>
+    <col min="2305" max="2305" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="15.1796875" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="42" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.42578125" style="1"/>
-    <col min="2309" max="2309" width="13.140625" style="1" customWidth="1"/>
-    <col min="2310" max="2560" width="11.42578125" style="1"/>
-    <col min="2561" max="2561" width="13.140625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="15.140625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.453125" style="1"/>
+    <col min="2309" max="2309" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2310" max="2560" width="11.453125" style="1"/>
+    <col min="2561" max="2561" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="15.1796875" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="42" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.42578125" style="1"/>
-    <col min="2565" max="2565" width="13.140625" style="1" customWidth="1"/>
-    <col min="2566" max="2816" width="11.42578125" style="1"/>
-    <col min="2817" max="2817" width="13.140625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="15.140625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.453125" style="1"/>
+    <col min="2565" max="2565" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2566" max="2816" width="11.453125" style="1"/>
+    <col min="2817" max="2817" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="15.1796875" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="42" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.42578125" style="1"/>
-    <col min="2821" max="2821" width="13.140625" style="1" customWidth="1"/>
-    <col min="2822" max="3072" width="11.42578125" style="1"/>
-    <col min="3073" max="3073" width="13.140625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="15.140625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.453125" style="1"/>
+    <col min="2821" max="2821" width="13.1796875" style="1" customWidth="1"/>
+    <col min="2822" max="3072" width="11.453125" style="1"/>
+    <col min="3073" max="3073" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="15.1796875" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="42" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.42578125" style="1"/>
-    <col min="3077" max="3077" width="13.140625" style="1" customWidth="1"/>
-    <col min="3078" max="3328" width="11.42578125" style="1"/>
-    <col min="3329" max="3329" width="13.140625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="15.140625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.453125" style="1"/>
+    <col min="3077" max="3077" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3078" max="3328" width="11.453125" style="1"/>
+    <col min="3329" max="3329" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="15.1796875" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="42" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.42578125" style="1"/>
-    <col min="3333" max="3333" width="13.140625" style="1" customWidth="1"/>
-    <col min="3334" max="3584" width="11.42578125" style="1"/>
-    <col min="3585" max="3585" width="13.140625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="15.140625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.453125" style="1"/>
+    <col min="3333" max="3333" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3334" max="3584" width="11.453125" style="1"/>
+    <col min="3585" max="3585" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="15.1796875" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="42" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.42578125" style="1"/>
-    <col min="3589" max="3589" width="13.140625" style="1" customWidth="1"/>
-    <col min="3590" max="3840" width="11.42578125" style="1"/>
-    <col min="3841" max="3841" width="13.140625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="15.140625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.453125" style="1"/>
+    <col min="3589" max="3589" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3590" max="3840" width="11.453125" style="1"/>
+    <col min="3841" max="3841" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="15.1796875" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="42" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.42578125" style="1"/>
-    <col min="3845" max="3845" width="13.140625" style="1" customWidth="1"/>
-    <col min="3846" max="4096" width="11.42578125" style="1"/>
-    <col min="4097" max="4097" width="13.140625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="15.140625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.453125" style="1"/>
+    <col min="3845" max="3845" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3846" max="4096" width="11.453125" style="1"/>
+    <col min="4097" max="4097" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="15.1796875" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="42" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.42578125" style="1"/>
-    <col min="4101" max="4101" width="13.140625" style="1" customWidth="1"/>
-    <col min="4102" max="4352" width="11.42578125" style="1"/>
-    <col min="4353" max="4353" width="13.140625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="15.140625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.453125" style="1"/>
+    <col min="4101" max="4101" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4102" max="4352" width="11.453125" style="1"/>
+    <col min="4353" max="4353" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="15.1796875" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="42" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.42578125" style="1"/>
-    <col min="4357" max="4357" width="13.140625" style="1" customWidth="1"/>
-    <col min="4358" max="4608" width="11.42578125" style="1"/>
-    <col min="4609" max="4609" width="13.140625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="15.140625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.453125" style="1"/>
+    <col min="4357" max="4357" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4358" max="4608" width="11.453125" style="1"/>
+    <col min="4609" max="4609" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="15.1796875" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="42" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.42578125" style="1"/>
-    <col min="4613" max="4613" width="13.140625" style="1" customWidth="1"/>
-    <col min="4614" max="4864" width="11.42578125" style="1"/>
-    <col min="4865" max="4865" width="13.140625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="15.140625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.453125" style="1"/>
+    <col min="4613" max="4613" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4614" max="4864" width="11.453125" style="1"/>
+    <col min="4865" max="4865" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="15.1796875" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="42" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.42578125" style="1"/>
-    <col min="4869" max="4869" width="13.140625" style="1" customWidth="1"/>
-    <col min="4870" max="5120" width="11.42578125" style="1"/>
-    <col min="5121" max="5121" width="13.140625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="15.140625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.453125" style="1"/>
+    <col min="4869" max="4869" width="13.1796875" style="1" customWidth="1"/>
+    <col min="4870" max="5120" width="11.453125" style="1"/>
+    <col min="5121" max="5121" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="15.1796875" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="42" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.42578125" style="1"/>
-    <col min="5125" max="5125" width="13.140625" style="1" customWidth="1"/>
-    <col min="5126" max="5376" width="11.42578125" style="1"/>
-    <col min="5377" max="5377" width="13.140625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="15.140625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.453125" style="1"/>
+    <col min="5125" max="5125" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5126" max="5376" width="11.453125" style="1"/>
+    <col min="5377" max="5377" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="15.1796875" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="42" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.42578125" style="1"/>
-    <col min="5381" max="5381" width="13.140625" style="1" customWidth="1"/>
-    <col min="5382" max="5632" width="11.42578125" style="1"/>
-    <col min="5633" max="5633" width="13.140625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="15.140625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.453125" style="1"/>
+    <col min="5381" max="5381" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5382" max="5632" width="11.453125" style="1"/>
+    <col min="5633" max="5633" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="15.1796875" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="42" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.42578125" style="1"/>
-    <col min="5637" max="5637" width="13.140625" style="1" customWidth="1"/>
-    <col min="5638" max="5888" width="11.42578125" style="1"/>
-    <col min="5889" max="5889" width="13.140625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="15.140625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.453125" style="1"/>
+    <col min="5637" max="5637" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5638" max="5888" width="11.453125" style="1"/>
+    <col min="5889" max="5889" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="15.1796875" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="42" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.42578125" style="1"/>
-    <col min="5893" max="5893" width="13.140625" style="1" customWidth="1"/>
-    <col min="5894" max="6144" width="11.42578125" style="1"/>
-    <col min="6145" max="6145" width="13.140625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="15.140625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.453125" style="1"/>
+    <col min="5893" max="5893" width="13.1796875" style="1" customWidth="1"/>
+    <col min="5894" max="6144" width="11.453125" style="1"/>
+    <col min="6145" max="6145" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="15.1796875" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="42" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.42578125" style="1"/>
-    <col min="6149" max="6149" width="13.140625" style="1" customWidth="1"/>
-    <col min="6150" max="6400" width="11.42578125" style="1"/>
-    <col min="6401" max="6401" width="13.140625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="15.140625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.453125" style="1"/>
+    <col min="6149" max="6149" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6150" max="6400" width="11.453125" style="1"/>
+    <col min="6401" max="6401" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="15.1796875" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="42" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.42578125" style="1"/>
-    <col min="6405" max="6405" width="13.140625" style="1" customWidth="1"/>
-    <col min="6406" max="6656" width="11.42578125" style="1"/>
-    <col min="6657" max="6657" width="13.140625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="15.140625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.453125" style="1"/>
+    <col min="6405" max="6405" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6406" max="6656" width="11.453125" style="1"/>
+    <col min="6657" max="6657" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="15.1796875" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="42" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.42578125" style="1"/>
-    <col min="6661" max="6661" width="13.140625" style="1" customWidth="1"/>
-    <col min="6662" max="6912" width="11.42578125" style="1"/>
-    <col min="6913" max="6913" width="13.140625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="15.140625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.453125" style="1"/>
+    <col min="6661" max="6661" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6662" max="6912" width="11.453125" style="1"/>
+    <col min="6913" max="6913" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="15.1796875" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="42" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.42578125" style="1"/>
-    <col min="6917" max="6917" width="13.140625" style="1" customWidth="1"/>
-    <col min="6918" max="7168" width="11.42578125" style="1"/>
-    <col min="7169" max="7169" width="13.140625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="15.140625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.453125" style="1"/>
+    <col min="6917" max="6917" width="13.1796875" style="1" customWidth="1"/>
+    <col min="6918" max="7168" width="11.453125" style="1"/>
+    <col min="7169" max="7169" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="15.1796875" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="42" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.42578125" style="1"/>
-    <col min="7173" max="7173" width="13.140625" style="1" customWidth="1"/>
-    <col min="7174" max="7424" width="11.42578125" style="1"/>
-    <col min="7425" max="7425" width="13.140625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="15.140625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.453125" style="1"/>
+    <col min="7173" max="7173" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7174" max="7424" width="11.453125" style="1"/>
+    <col min="7425" max="7425" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="15.1796875" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="42" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.42578125" style="1"/>
-    <col min="7429" max="7429" width="13.140625" style="1" customWidth="1"/>
-    <col min="7430" max="7680" width="11.42578125" style="1"/>
-    <col min="7681" max="7681" width="13.140625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="15.140625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.453125" style="1"/>
+    <col min="7429" max="7429" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7430" max="7680" width="11.453125" style="1"/>
+    <col min="7681" max="7681" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="15.1796875" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="42" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.42578125" style="1"/>
-    <col min="7685" max="7685" width="13.140625" style="1" customWidth="1"/>
-    <col min="7686" max="7936" width="11.42578125" style="1"/>
-    <col min="7937" max="7937" width="13.140625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="15.140625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.453125" style="1"/>
+    <col min="7685" max="7685" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7686" max="7936" width="11.453125" style="1"/>
+    <col min="7937" max="7937" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="15.1796875" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="42" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.42578125" style="1"/>
-    <col min="7941" max="7941" width="13.140625" style="1" customWidth="1"/>
-    <col min="7942" max="8192" width="11.42578125" style="1"/>
-    <col min="8193" max="8193" width="13.140625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="15.140625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.453125" style="1"/>
+    <col min="7941" max="7941" width="13.1796875" style="1" customWidth="1"/>
+    <col min="7942" max="8192" width="11.453125" style="1"/>
+    <col min="8193" max="8193" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="15.1796875" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="42" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.42578125" style="1"/>
-    <col min="8197" max="8197" width="13.140625" style="1" customWidth="1"/>
-    <col min="8198" max="8448" width="11.42578125" style="1"/>
-    <col min="8449" max="8449" width="13.140625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="15.140625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.453125" style="1"/>
+    <col min="8197" max="8197" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8198" max="8448" width="11.453125" style="1"/>
+    <col min="8449" max="8449" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="15.1796875" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="42" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.42578125" style="1"/>
-    <col min="8453" max="8453" width="13.140625" style="1" customWidth="1"/>
-    <col min="8454" max="8704" width="11.42578125" style="1"/>
-    <col min="8705" max="8705" width="13.140625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="15.140625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.453125" style="1"/>
+    <col min="8453" max="8453" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8454" max="8704" width="11.453125" style="1"/>
+    <col min="8705" max="8705" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="15.1796875" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="42" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.42578125" style="1"/>
-    <col min="8709" max="8709" width="13.140625" style="1" customWidth="1"/>
-    <col min="8710" max="8960" width="11.42578125" style="1"/>
-    <col min="8961" max="8961" width="13.140625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="15.140625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.453125" style="1"/>
+    <col min="8709" max="8709" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8710" max="8960" width="11.453125" style="1"/>
+    <col min="8961" max="8961" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="15.1796875" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="42" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.42578125" style="1"/>
-    <col min="8965" max="8965" width="13.140625" style="1" customWidth="1"/>
-    <col min="8966" max="9216" width="11.42578125" style="1"/>
-    <col min="9217" max="9217" width="13.140625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="15.140625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.453125" style="1"/>
+    <col min="8965" max="8965" width="13.1796875" style="1" customWidth="1"/>
+    <col min="8966" max="9216" width="11.453125" style="1"/>
+    <col min="9217" max="9217" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="15.1796875" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="42" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.42578125" style="1"/>
-    <col min="9221" max="9221" width="13.140625" style="1" customWidth="1"/>
-    <col min="9222" max="9472" width="11.42578125" style="1"/>
-    <col min="9473" max="9473" width="13.140625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="15.140625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.453125" style="1"/>
+    <col min="9221" max="9221" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9222" max="9472" width="11.453125" style="1"/>
+    <col min="9473" max="9473" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="15.1796875" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="42" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.42578125" style="1"/>
-    <col min="9477" max="9477" width="13.140625" style="1" customWidth="1"/>
-    <col min="9478" max="9728" width="11.42578125" style="1"/>
-    <col min="9729" max="9729" width="13.140625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="15.140625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.453125" style="1"/>
+    <col min="9477" max="9477" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9478" max="9728" width="11.453125" style="1"/>
+    <col min="9729" max="9729" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="15.1796875" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="42" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.42578125" style="1"/>
-    <col min="9733" max="9733" width="13.140625" style="1" customWidth="1"/>
-    <col min="9734" max="9984" width="11.42578125" style="1"/>
-    <col min="9985" max="9985" width="13.140625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="15.140625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.453125" style="1"/>
+    <col min="9733" max="9733" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9734" max="9984" width="11.453125" style="1"/>
+    <col min="9985" max="9985" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="15.1796875" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="42" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.42578125" style="1"/>
-    <col min="9989" max="9989" width="13.140625" style="1" customWidth="1"/>
-    <col min="9990" max="10240" width="11.42578125" style="1"/>
-    <col min="10241" max="10241" width="13.140625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="15.140625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.453125" style="1"/>
+    <col min="9989" max="9989" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9990" max="10240" width="11.453125" style="1"/>
+    <col min="10241" max="10241" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="15.1796875" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="42" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.42578125" style="1"/>
-    <col min="10245" max="10245" width="13.140625" style="1" customWidth="1"/>
-    <col min="10246" max="10496" width="11.42578125" style="1"/>
-    <col min="10497" max="10497" width="13.140625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="15.140625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.453125" style="1"/>
+    <col min="10245" max="10245" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10246" max="10496" width="11.453125" style="1"/>
+    <col min="10497" max="10497" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="15.1796875" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="42" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.42578125" style="1"/>
-    <col min="10501" max="10501" width="13.140625" style="1" customWidth="1"/>
-    <col min="10502" max="10752" width="11.42578125" style="1"/>
-    <col min="10753" max="10753" width="13.140625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="15.140625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.453125" style="1"/>
+    <col min="10501" max="10501" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10502" max="10752" width="11.453125" style="1"/>
+    <col min="10753" max="10753" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="15.1796875" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="42" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.42578125" style="1"/>
-    <col min="10757" max="10757" width="13.140625" style="1" customWidth="1"/>
-    <col min="10758" max="11008" width="11.42578125" style="1"/>
-    <col min="11009" max="11009" width="13.140625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="15.140625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.453125" style="1"/>
+    <col min="10757" max="10757" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10758" max="11008" width="11.453125" style="1"/>
+    <col min="11009" max="11009" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="15.1796875" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="42" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.42578125" style="1"/>
-    <col min="11013" max="11013" width="13.140625" style="1" customWidth="1"/>
-    <col min="11014" max="11264" width="11.42578125" style="1"/>
-    <col min="11265" max="11265" width="13.140625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="15.140625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.453125" style="1"/>
+    <col min="11013" max="11013" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11014" max="11264" width="11.453125" style="1"/>
+    <col min="11265" max="11265" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="15.1796875" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="42" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.42578125" style="1"/>
-    <col min="11269" max="11269" width="13.140625" style="1" customWidth="1"/>
-    <col min="11270" max="11520" width="11.42578125" style="1"/>
-    <col min="11521" max="11521" width="13.140625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="15.140625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.453125" style="1"/>
+    <col min="11269" max="11269" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11270" max="11520" width="11.453125" style="1"/>
+    <col min="11521" max="11521" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="15.1796875" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="42" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.42578125" style="1"/>
-    <col min="11525" max="11525" width="13.140625" style="1" customWidth="1"/>
-    <col min="11526" max="11776" width="11.42578125" style="1"/>
-    <col min="11777" max="11777" width="13.140625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="15.140625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.453125" style="1"/>
+    <col min="11525" max="11525" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11526" max="11776" width="11.453125" style="1"/>
+    <col min="11777" max="11777" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="15.1796875" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="42" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.42578125" style="1"/>
-    <col min="11781" max="11781" width="13.140625" style="1" customWidth="1"/>
-    <col min="11782" max="12032" width="11.42578125" style="1"/>
-    <col min="12033" max="12033" width="13.140625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="15.140625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.453125" style="1"/>
+    <col min="11781" max="11781" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11782" max="12032" width="11.453125" style="1"/>
+    <col min="12033" max="12033" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="15.1796875" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="42" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.42578125" style="1"/>
-    <col min="12037" max="12037" width="13.140625" style="1" customWidth="1"/>
-    <col min="12038" max="12288" width="11.42578125" style="1"/>
-    <col min="12289" max="12289" width="13.140625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="15.140625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.453125" style="1"/>
+    <col min="12037" max="12037" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12038" max="12288" width="11.453125" style="1"/>
+    <col min="12289" max="12289" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="15.1796875" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="42" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.42578125" style="1"/>
-    <col min="12293" max="12293" width="13.140625" style="1" customWidth="1"/>
-    <col min="12294" max="12544" width="11.42578125" style="1"/>
-    <col min="12545" max="12545" width="13.140625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="15.140625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.453125" style="1"/>
+    <col min="12293" max="12293" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12294" max="12544" width="11.453125" style="1"/>
+    <col min="12545" max="12545" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="15.1796875" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="42" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.42578125" style="1"/>
-    <col min="12549" max="12549" width="13.140625" style="1" customWidth="1"/>
-    <col min="12550" max="12800" width="11.42578125" style="1"/>
-    <col min="12801" max="12801" width="13.140625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="15.140625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.453125" style="1"/>
+    <col min="12549" max="12549" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12550" max="12800" width="11.453125" style="1"/>
+    <col min="12801" max="12801" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="15.1796875" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="42" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.42578125" style="1"/>
-    <col min="12805" max="12805" width="13.140625" style="1" customWidth="1"/>
-    <col min="12806" max="13056" width="11.42578125" style="1"/>
-    <col min="13057" max="13057" width="13.140625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="15.140625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.453125" style="1"/>
+    <col min="12805" max="12805" width="13.1796875" style="1" customWidth="1"/>
+    <col min="12806" max="13056" width="11.453125" style="1"/>
+    <col min="13057" max="13057" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="15.1796875" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="42" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.42578125" style="1"/>
-    <col min="13061" max="13061" width="13.140625" style="1" customWidth="1"/>
-    <col min="13062" max="13312" width="11.42578125" style="1"/>
-    <col min="13313" max="13313" width="13.140625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="15.140625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.453125" style="1"/>
+    <col min="13061" max="13061" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13062" max="13312" width="11.453125" style="1"/>
+    <col min="13313" max="13313" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="15.1796875" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="42" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.42578125" style="1"/>
-    <col min="13317" max="13317" width="13.140625" style="1" customWidth="1"/>
-    <col min="13318" max="13568" width="11.42578125" style="1"/>
-    <col min="13569" max="13569" width="13.140625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="15.140625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.453125" style="1"/>
+    <col min="13317" max="13317" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13318" max="13568" width="11.453125" style="1"/>
+    <col min="13569" max="13569" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="15.1796875" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="42" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.42578125" style="1"/>
-    <col min="13573" max="13573" width="13.140625" style="1" customWidth="1"/>
-    <col min="13574" max="13824" width="11.42578125" style="1"/>
-    <col min="13825" max="13825" width="13.140625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="15.140625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.453125" style="1"/>
+    <col min="13573" max="13573" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13574" max="13824" width="11.453125" style="1"/>
+    <col min="13825" max="13825" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="15.1796875" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="42" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.42578125" style="1"/>
-    <col min="13829" max="13829" width="13.140625" style="1" customWidth="1"/>
-    <col min="13830" max="14080" width="11.42578125" style="1"/>
-    <col min="14081" max="14081" width="13.140625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="15.140625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.453125" style="1"/>
+    <col min="13829" max="13829" width="13.1796875" style="1" customWidth="1"/>
+    <col min="13830" max="14080" width="11.453125" style="1"/>
+    <col min="14081" max="14081" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="15.1796875" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="42" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.42578125" style="1"/>
-    <col min="14085" max="14085" width="13.140625" style="1" customWidth="1"/>
-    <col min="14086" max="14336" width="11.42578125" style="1"/>
-    <col min="14337" max="14337" width="13.140625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="15.140625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.453125" style="1"/>
+    <col min="14085" max="14085" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14086" max="14336" width="11.453125" style="1"/>
+    <col min="14337" max="14337" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="15.1796875" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="42" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.42578125" style="1"/>
-    <col min="14341" max="14341" width="13.140625" style="1" customWidth="1"/>
-    <col min="14342" max="14592" width="11.42578125" style="1"/>
-    <col min="14593" max="14593" width="13.140625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="15.140625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.453125" style="1"/>
+    <col min="14341" max="14341" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14342" max="14592" width="11.453125" style="1"/>
+    <col min="14593" max="14593" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="15.1796875" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="42" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.42578125" style="1"/>
-    <col min="14597" max="14597" width="13.140625" style="1" customWidth="1"/>
-    <col min="14598" max="14848" width="11.42578125" style="1"/>
-    <col min="14849" max="14849" width="13.140625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="15.140625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.453125" style="1"/>
+    <col min="14597" max="14597" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14598" max="14848" width="11.453125" style="1"/>
+    <col min="14849" max="14849" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="15.1796875" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="42" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.42578125" style="1"/>
-    <col min="14853" max="14853" width="13.140625" style="1" customWidth="1"/>
-    <col min="14854" max="15104" width="11.42578125" style="1"/>
-    <col min="15105" max="15105" width="13.140625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="15.140625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.453125" style="1"/>
+    <col min="14853" max="14853" width="13.1796875" style="1" customWidth="1"/>
+    <col min="14854" max="15104" width="11.453125" style="1"/>
+    <col min="15105" max="15105" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="15.1796875" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="42" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.42578125" style="1"/>
-    <col min="15109" max="15109" width="13.140625" style="1" customWidth="1"/>
-    <col min="15110" max="15360" width="11.42578125" style="1"/>
-    <col min="15361" max="15361" width="13.140625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="15.140625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.453125" style="1"/>
+    <col min="15109" max="15109" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15110" max="15360" width="11.453125" style="1"/>
+    <col min="15361" max="15361" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="15.1796875" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="42" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.42578125" style="1"/>
-    <col min="15365" max="15365" width="13.140625" style="1" customWidth="1"/>
-    <col min="15366" max="15616" width="11.42578125" style="1"/>
-    <col min="15617" max="15617" width="13.140625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="15.140625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.453125" style="1"/>
+    <col min="15365" max="15365" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15366" max="15616" width="11.453125" style="1"/>
+    <col min="15617" max="15617" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="15.1796875" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="42" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.42578125" style="1"/>
-    <col min="15621" max="15621" width="13.140625" style="1" customWidth="1"/>
-    <col min="15622" max="15872" width="11.42578125" style="1"/>
-    <col min="15873" max="15873" width="13.140625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="15.140625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.453125" style="1"/>
+    <col min="15621" max="15621" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15622" max="15872" width="11.453125" style="1"/>
+    <col min="15873" max="15873" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="15.1796875" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="42" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.42578125" style="1"/>
-    <col min="15877" max="15877" width="13.140625" style="1" customWidth="1"/>
-    <col min="15878" max="16128" width="11.42578125" style="1"/>
-    <col min="16129" max="16129" width="13.140625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="15.140625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.453125" style="1"/>
+    <col min="15877" max="15877" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15878" max="16128" width="11.453125" style="1"/>
+    <col min="16129" max="16129" width="13.1796875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="15.1796875" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="42" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.42578125" style="1"/>
-    <col min="16133" max="16133" width="13.140625" style="1" customWidth="1"/>
-    <col min="16134" max="16384" width="11.42578125" style="1"/>
+    <col min="16132" max="16132" width="11.453125" style="1"/>
+    <col min="16133" max="16133" width="13.1796875" style="1" customWidth="1"/>
+    <col min="16134" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16" thickBot="1"/>
+    <row r="2" spans="1:12" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="15" thickBot="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" ht="23.5" thickBot="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+    <row r="6" spans="1:12" ht="18">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18">
         <f ca="1">NOW()</f>
-        <v>45013.513651967594</v>
-      </c>
-      <c r="D7" s="28" t="s">
+        <v>45404.366227314815</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30">
-        <v>20230300275</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="E7" s="19">
+        <v>20240400567</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5">
+      <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.5">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.5">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.5">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="40">
-        <v>45013</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="27">
+        <v>45038</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="41">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="E15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.5">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.5">
+      <c r="A17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.5">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="33" t="s">
+      <c r="E19" s="28"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.5">
+      <c r="A21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.149999999999999" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="31">
+      <c r="A23" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="B23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="C23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="D23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="E23" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="F23" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.5">
+      <c r="A24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="74">
+        <v>0</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="75">
+        <v>450</v>
+      </c>
+      <c r="G24" s="76">
+        <f ca="1">+G24:G24:G130</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.5">
+      <c r="A25" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="72">
+        <v>201124170</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="74">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="75">
+        <v>450</v>
+      </c>
+      <c r="G25" s="76">
+        <f t="shared" ref="G24:G179" si="0">D25*F25</f>
+        <v>450</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.5">
+      <c r="A26" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="77">
+        <v>2000094732</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="74">
+        <v>1</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="75">
+        <v>450</v>
+      </c>
+      <c r="G26" s="76">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.5">
+      <c r="A27" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="72">
+        <v>2000086732</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="74">
+        <v>1</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="75">
+        <v>450</v>
+      </c>
+      <c r="G27" s="76">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.5">
+      <c r="A28" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="74">
+        <v>1</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="75">
+        <v>450</v>
+      </c>
+      <c r="G28" s="76">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.5">
+      <c r="A29" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="72">
+        <v>1800092435</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="74">
+        <v>1</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="75">
+        <v>450</v>
+      </c>
+      <c r="G29" s="76">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.5">
+      <c r="A30" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="74">
+        <v>0</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="75">
+        <v>450</v>
+      </c>
+      <c r="G30" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.5">
+      <c r="A31" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="72">
+        <v>2000086733</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="74">
+        <v>1</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="75">
+        <v>450</v>
+      </c>
+      <c r="G31" s="76">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.5">
+      <c r="A32" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="74">
+        <v>0</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="75">
+        <v>450</v>
+      </c>
+      <c r="G32" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.5">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="81">
+        <v>6</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.5">
+      <c r="A34" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="74">
+        <v>0</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="75">
+        <v>500</v>
+      </c>
+      <c r="G34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.5">
+      <c r="A35" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="74">
+        <v>1</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="75">
+        <v>500</v>
+      </c>
+      <c r="G35" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.5">
+      <c r="A36" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="74">
+        <v>1</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="75">
+        <v>500</v>
+      </c>
+      <c r="G36" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.5">
+      <c r="A37" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="74">
+        <v>1</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="75">
+        <v>500</v>
+      </c>
+      <c r="G37" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.5">
+      <c r="A38" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="74">
+        <v>1</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="75">
+        <v>500</v>
+      </c>
+      <c r="G38" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.5">
+      <c r="A39" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="74">
+        <v>1</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="75">
+        <v>500</v>
+      </c>
+      <c r="G39" s="76">
+        <f>D39*F39</f>
+        <v>500</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.5">
+      <c r="A40" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="74">
+        <v>1</v>
+      </c>
+      <c r="E40" s="39"/>
+      <c r="F40" s="75">
+        <v>500</v>
+      </c>
+      <c r="G40" s="76">
+        <f>D40*F40</f>
+        <v>500</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.5">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="81">
+        <v>6</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.5">
+      <c r="A42" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="82">
+        <v>1</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="75">
+        <v>500</v>
+      </c>
+      <c r="G42" s="76"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.5">
+      <c r="A43" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="40">
+        <v>1</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="75">
+        <v>500</v>
+      </c>
+      <c r="G43" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.5">
+      <c r="A44" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="75">
+        <v>500</v>
+      </c>
+      <c r="G44" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.5">
+      <c r="A45" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="77">
+        <v>220242826</v>
+      </c>
+      <c r="C45" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="40">
+        <v>1</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="75">
+        <v>500</v>
+      </c>
+      <c r="G45" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.5">
+      <c r="A46" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="75">
+        <v>500</v>
+      </c>
+      <c r="G46" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.5">
+      <c r="A47" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="75">
+        <v>500</v>
+      </c>
+      <c r="G47" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.5">
+      <c r="A48" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="40">
+        <v>1</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="75">
+        <v>500</v>
+      </c>
+      <c r="G48" s="76">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.5">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="83">
+        <v>7</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="76"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="1:11" s="92" customFormat="1" ht="15.5">
+      <c r="A50" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="99">
+        <v>0</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="76"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="1:11" s="92" customFormat="1" ht="15.5">
+      <c r="A51" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="99">
+        <v>1</v>
+      </c>
+      <c r="E51" s="84"/>
+      <c r="F51" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="98">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="1:11" s="92" customFormat="1" ht="15.5">
+      <c r="A52" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="99">
+        <v>1</v>
+      </c>
+      <c r="E52" s="84"/>
+      <c r="F52" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="98">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A53" s="99"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="95">
+        <v>2</v>
+      </c>
+      <c r="E53" s="84"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="76"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A54" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="99">
+        <v>1</v>
+      </c>
+      <c r="E54" s="84"/>
+      <c r="F54" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="98">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A55" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="99">
+        <v>1</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="98">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+    </row>
+    <row r="56" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A56" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="99">
+        <v>1</v>
+      </c>
+      <c r="E56" s="84"/>
+      <c r="F56" s="98">
+        <v>1000</v>
+      </c>
+      <c r="G56" s="98">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="95">
+        <v>3</v>
+      </c>
+      <c r="E57" s="84"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="76"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="58" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A58" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="99">
+        <v>5</v>
+      </c>
+      <c r="E58" s="84"/>
+      <c r="F58" s="109">
+        <v>55</v>
+      </c>
+      <c r="G58" s="76">
+        <f>F58*D58</f>
+        <v>275</v>
+      </c>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+    </row>
+    <row r="59" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A59" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" s="99">
+        <v>5</v>
+      </c>
+      <c r="E59" s="84"/>
+      <c r="F59" s="109">
+        <v>55</v>
+      </c>
+      <c r="G59" s="76">
+        <f t="shared" ref="G59:G76" si="1">F59*D59</f>
+        <v>275</v>
+      </c>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+    </row>
+    <row r="60" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A60" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="99">
+        <v>5</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="109">
+        <v>55</v>
+      </c>
+      <c r="G60" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+    </row>
+    <row r="61" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A61" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="99">
+        <v>5</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="109">
+        <v>55</v>
+      </c>
+      <c r="G61" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A62" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="99">
+        <v>5</v>
+      </c>
+      <c r="E62" s="84"/>
+      <c r="F62" s="109">
+        <v>55</v>
+      </c>
+      <c r="G62" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+    </row>
+    <row r="63" spans="1:11" s="90" customFormat="1" ht="15.5">
+      <c r="A63" s="96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="99">
+        <v>10</v>
+      </c>
+      <c r="E63" s="84"/>
+      <c r="F63" s="109">
+        <v>55</v>
+      </c>
+      <c r="G63" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.5">
+      <c r="A64" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="99">
+        <v>10</v>
+      </c>
+      <c r="E64" s="84"/>
+      <c r="F64" s="109">
+        <v>55</v>
+      </c>
+      <c r="G64" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.5">
+      <c r="A65" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="99" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="99">
+        <v>10</v>
+      </c>
+      <c r="E65" s="84"/>
+      <c r="F65" s="109">
+        <v>55</v>
+      </c>
+      <c r="G65" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.5">
+      <c r="A66" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="99">
+        <v>10</v>
+      </c>
+      <c r="E66" s="84"/>
+      <c r="F66" s="109">
+        <v>55</v>
+      </c>
+      <c r="G66" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.5">
+      <c r="A67" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B67" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="99">
+        <v>10</v>
+      </c>
+      <c r="E67" s="84"/>
+      <c r="F67" s="109">
+        <v>55</v>
+      </c>
+      <c r="G67" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.5">
+      <c r="A68" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" s="99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="99">
+        <v>10</v>
+      </c>
+      <c r="E68" s="84"/>
+      <c r="F68" s="109">
+        <v>55</v>
+      </c>
+      <c r="G68" s="76">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.5">
+      <c r="A69" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="99">
+        <v>5</v>
+      </c>
+      <c r="E69" s="84"/>
+      <c r="F69" s="109">
+        <v>55</v>
+      </c>
+      <c r="G69" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.5">
+      <c r="A70" s="96" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" s="99" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" s="99">
+        <v>5</v>
+      </c>
+      <c r="E70" s="84"/>
+      <c r="F70" s="109">
+        <v>55</v>
+      </c>
+      <c r="G70" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.5">
+      <c r="A71" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C71" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" s="99">
+        <v>5</v>
+      </c>
+      <c r="E71" s="84"/>
+      <c r="F71" s="109">
+        <v>55</v>
+      </c>
+      <c r="G71" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.5">
+      <c r="A72" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="97" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="99">
+        <v>5</v>
+      </c>
+      <c r="E72" s="84"/>
+      <c r="F72" s="109">
+        <v>55</v>
+      </c>
+      <c r="G72" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.5">
+      <c r="A73" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="99">
+        <v>5</v>
+      </c>
+      <c r="E73" s="84"/>
+      <c r="F73" s="109">
+        <v>55</v>
+      </c>
+      <c r="G73" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.5">
+      <c r="A74" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="B74" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="99">
+        <v>5</v>
+      </c>
+      <c r="E74" s="84"/>
+      <c r="F74" s="109">
+        <v>55</v>
+      </c>
+      <c r="G74" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.5">
+      <c r="A75" s="96" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="99">
+        <v>5</v>
+      </c>
+      <c r="E75" s="84"/>
+      <c r="F75" s="109">
+        <v>55</v>
+      </c>
+      <c r="G75" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.5">
+      <c r="A76" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" s="99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="97" t="s">
+        <v>334</v>
+      </c>
+      <c r="D76" s="99">
+        <v>5</v>
+      </c>
+      <c r="E76" s="84"/>
+      <c r="F76" s="109">
+        <v>55</v>
+      </c>
+      <c r="G76" s="76">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.5">
+      <c r="A77" s="96"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="95">
+        <v>125</v>
+      </c>
+      <c r="E77" s="84"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="76"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.5">
+      <c r="A78" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="D78" s="99">
+        <v>5</v>
+      </c>
+      <c r="E78" s="84"/>
+      <c r="F78" s="85">
+        <v>45</v>
+      </c>
+      <c r="G78" s="76">
+        <f>F78*D78</f>
+        <v>225</v>
+      </c>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.5">
+      <c r="A79" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="B79" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" s="97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D79" s="99">
+        <v>5</v>
+      </c>
+      <c r="E79" s="84"/>
+      <c r="F79" s="85">
+        <v>45</v>
+      </c>
+      <c r="G79" s="76">
+        <f t="shared" ref="G79:G88" si="2">F79*D79</f>
+        <v>225</v>
+      </c>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.5">
+      <c r="A80" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" s="99">
+        <v>5</v>
+      </c>
+      <c r="E80" s="84"/>
+      <c r="F80" s="85">
+        <v>45</v>
+      </c>
+      <c r="G80" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.5">
+      <c r="A81" s="96" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="99">
+        <v>5</v>
+      </c>
+      <c r="E81" s="84"/>
+      <c r="F81" s="85">
+        <v>45</v>
+      </c>
+      <c r="G81" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.5">
+      <c r="A82" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" s="99" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="99">
+        <v>5</v>
+      </c>
+      <c r="E82" s="84"/>
+      <c r="F82" s="85">
+        <v>45</v>
+      </c>
+      <c r="G82" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.5">
+      <c r="A83" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="D83" s="99">
+        <v>5</v>
+      </c>
+      <c r="E83" s="84"/>
+      <c r="F83" s="85">
+        <v>45</v>
+      </c>
+      <c r="G83" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.5">
+      <c r="A84" s="96" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" s="97" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" s="99">
+        <v>5</v>
+      </c>
+      <c r="E84" s="84"/>
+      <c r="F84" s="85">
+        <v>45</v>
+      </c>
+      <c r="G84" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.5">
+      <c r="A85" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="C85" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" s="99">
+        <v>5</v>
+      </c>
+      <c r="E85" s="84"/>
+      <c r="F85" s="85">
+        <v>45</v>
+      </c>
+      <c r="G85" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.5">
+      <c r="A86" s="96" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="C86" s="97" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="99">
+        <v>5</v>
+      </c>
+      <c r="E86" s="84"/>
+      <c r="F86" s="85">
+        <v>45</v>
+      </c>
+      <c r="G86" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.5">
+      <c r="A87" s="96" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="D87" s="99">
+        <v>5</v>
+      </c>
+      <c r="E87" s="84"/>
+      <c r="F87" s="85">
+        <v>45</v>
+      </c>
+      <c r="G87" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.5">
+      <c r="A88" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" s="99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" s="99">
+        <v>5</v>
+      </c>
+      <c r="E88" s="84"/>
+      <c r="F88" s="85">
+        <v>45</v>
+      </c>
+      <c r="G88" s="76">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.5">
+      <c r="A89" s="99"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="95">
+        <v>55</v>
+      </c>
+      <c r="E89" s="84"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="76"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.5">
+      <c r="A90" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="B90" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="99">
+        <v>5</v>
+      </c>
+      <c r="E90" s="84"/>
+      <c r="F90" s="98">
+        <v>70</v>
+      </c>
+      <c r="G90" s="76">
+        <f>F90*D90</f>
+        <v>350</v>
+      </c>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.5">
+      <c r="A91" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="B91" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="D91" s="99">
+        <v>5</v>
+      </c>
+      <c r="E91" s="84"/>
+      <c r="F91" s="98">
+        <v>70</v>
+      </c>
+      <c r="G91" s="76">
+        <f t="shared" ref="G91:G108" si="3">F91*D91</f>
+        <v>350</v>
+      </c>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.5">
+      <c r="A92" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="100" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" s="99">
+        <v>5</v>
+      </c>
+      <c r="E92" s="84"/>
+      <c r="F92" s="98">
+        <v>70</v>
+      </c>
+      <c r="G92" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.5">
+      <c r="A93" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="C93" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="99">
+        <v>5</v>
+      </c>
+      <c r="E93" s="84"/>
+      <c r="F93" s="98">
+        <v>70</v>
+      </c>
+      <c r="G93" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.5">
+      <c r="A94" s="99" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" s="99">
+        <v>5</v>
+      </c>
+      <c r="E94" s="84"/>
+      <c r="F94" s="98">
+        <v>70</v>
+      </c>
+      <c r="G94" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.5">
+      <c r="A95" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="99">
+        <v>5</v>
+      </c>
+      <c r="E95" s="84"/>
+      <c r="F95" s="98">
+        <v>70</v>
+      </c>
+      <c r="G95" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.5">
+      <c r="A96" s="99" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="99" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="100" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96" s="99">
+        <v>5</v>
+      </c>
+      <c r="E96" s="84"/>
+      <c r="F96" s="98">
+        <v>70</v>
+      </c>
+      <c r="G96" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.5">
+      <c r="A97" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C97" s="100" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" s="99">
+        <v>5</v>
+      </c>
+      <c r="E97" s="84"/>
+      <c r="F97" s="98">
+        <v>70</v>
+      </c>
+      <c r="G97" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.5">
+      <c r="A98" s="99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B98" s="99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C98" s="100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D98" s="99">
+        <v>5</v>
+      </c>
+      <c r="E98" s="84"/>
+      <c r="F98" s="98">
+        <v>70</v>
+      </c>
+      <c r="G98" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.5">
+      <c r="A99" s="99" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="100" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" s="99">
+        <v>5</v>
+      </c>
+      <c r="E99" s="84"/>
+      <c r="F99" s="98">
+        <v>70</v>
+      </c>
+      <c r="G99" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.5">
+      <c r="A100" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="B100" s="99" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="100" t="s">
+        <v>395</v>
+      </c>
+      <c r="D100" s="99">
+        <v>5</v>
+      </c>
+      <c r="E100" s="84"/>
+      <c r="F100" s="98">
+        <v>70</v>
+      </c>
+      <c r="G100" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.5">
+      <c r="A101" s="99" t="s">
+        <v>396</v>
+      </c>
+      <c r="B101" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="C101" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="D101" s="99">
+        <v>4</v>
+      </c>
+      <c r="E101" s="84"/>
+      <c r="F101" s="98">
+        <v>70</v>
+      </c>
+      <c r="G101" s="76">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.5">
+      <c r="A102" s="99" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="C102" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" s="99">
+        <v>5</v>
+      </c>
+      <c r="E102" s="84"/>
+      <c r="F102" s="98">
+        <v>70</v>
+      </c>
+      <c r="G102" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.5">
+      <c r="A103" s="99" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" s="99" t="s">
+        <v>403</v>
+      </c>
+      <c r="C103" s="100" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" s="99">
+        <v>1</v>
+      </c>
+      <c r="E103" s="84"/>
+      <c r="F103" s="98">
+        <v>70</v>
+      </c>
+      <c r="G103" s="76">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.5">
+      <c r="A104" s="99" t="s">
+        <v>405</v>
+      </c>
+      <c r="B104" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="C104" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="D104" s="99">
+        <v>4</v>
+      </c>
+      <c r="E104" s="84"/>
+      <c r="F104" s="98">
+        <v>70</v>
+      </c>
+      <c r="G104" s="76">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.5">
+      <c r="A105" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="C105" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="D105" s="99">
+        <v>3</v>
+      </c>
+      <c r="E105" s="84"/>
+      <c r="F105" s="98">
+        <v>70</v>
+      </c>
+      <c r="G105" s="76">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.5">
+      <c r="A106" s="99" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="C106" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="D106" s="99">
+        <v>5</v>
+      </c>
+      <c r="E106" s="84"/>
+      <c r="F106" s="98">
+        <v>70</v>
+      </c>
+      <c r="G106" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.5">
+      <c r="A107" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C107" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="D107" s="99">
+        <v>5</v>
+      </c>
+      <c r="E107" s="84"/>
+      <c r="F107" s="98">
+        <v>70</v>
+      </c>
+      <c r="G107" s="76">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.5">
+      <c r="A108" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="B108" s="99" t="s">
+        <v>418</v>
+      </c>
+      <c r="C108" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="99">
+        <v>4</v>
+      </c>
+      <c r="E108" s="84"/>
+      <c r="F108" s="98">
+        <v>70</v>
+      </c>
+      <c r="G108" s="76">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.5">
+      <c r="A109" s="101"/>
+      <c r="B109" s="101"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="95">
+        <v>88</v>
+      </c>
+      <c r="E109" s="84"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="76"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.5">
+      <c r="A110" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="110">
+        <v>200112210</v>
+      </c>
+      <c r="C110" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="117">
+        <v>3</v>
+      </c>
+      <c r="E110" s="84"/>
+      <c r="F110" s="85">
+        <v>40</v>
+      </c>
+      <c r="G110" s="76">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.5">
+      <c r="A111" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="110">
+        <v>220142153</v>
+      </c>
+      <c r="C111" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="117">
+        <v>1</v>
+      </c>
+      <c r="E111" s="84"/>
+      <c r="F111" s="85">
+        <v>40</v>
+      </c>
+      <c r="G111" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.5">
+      <c r="A112" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="110">
+        <v>220647543</v>
+      </c>
+      <c r="C112" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="117">
+        <v>2</v>
+      </c>
+      <c r="E112" s="84"/>
+      <c r="F112" s="85">
+        <v>40</v>
+      </c>
+      <c r="G112" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.5">
+      <c r="A113" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="110">
+        <v>220142153</v>
+      </c>
+      <c r="C113" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="117">
+        <v>1</v>
+      </c>
+      <c r="E113" s="84"/>
+      <c r="F113" s="85">
+        <v>40</v>
+      </c>
+      <c r="G113" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.5">
+      <c r="A114" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="110">
+        <v>2300000114</v>
+      </c>
+      <c r="C114" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="117">
+        <v>1</v>
+      </c>
+      <c r="E114" s="84"/>
+      <c r="F114" s="85">
+        <v>40</v>
+      </c>
+      <c r="G114" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.5">
+      <c r="A115" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="110">
+        <v>2300021659</v>
+      </c>
+      <c r="C115" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="117">
+        <v>4</v>
+      </c>
+      <c r="E115" s="84"/>
+      <c r="F115" s="85">
+        <v>40</v>
+      </c>
+      <c r="G115" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.5">
+      <c r="A116" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="110">
+        <v>200112212</v>
+      </c>
+      <c r="C116" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" s="117">
+        <v>4</v>
+      </c>
+      <c r="E116" s="84"/>
+      <c r="F116" s="85">
+        <v>40</v>
+      </c>
+      <c r="G116" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.5">
+      <c r="A117" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="110">
+        <v>200112212</v>
+      </c>
+      <c r="C117" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="117">
+        <v>4</v>
+      </c>
+      <c r="E117" s="84"/>
+      <c r="F117" s="85">
+        <v>40</v>
+      </c>
+      <c r="G117" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.5">
+      <c r="A118" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="110">
+        <v>200112213</v>
+      </c>
+      <c r="C118" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="117">
+        <v>4</v>
+      </c>
+      <c r="E118" s="84"/>
+      <c r="F118" s="85">
+        <v>40</v>
+      </c>
+      <c r="G118" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.5">
+      <c r="A119" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="110">
+        <v>200112214</v>
+      </c>
+      <c r="C119" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="117">
+        <v>4</v>
+      </c>
+      <c r="E119" s="84"/>
+      <c r="F119" s="85">
+        <v>40</v>
+      </c>
+      <c r="G119" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.5">
+      <c r="A120" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="110">
+        <v>191211231</v>
+      </c>
+      <c r="C120" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="117">
+        <v>1</v>
+      </c>
+      <c r="E120" s="84"/>
+      <c r="F120" s="85">
+        <v>40</v>
+      </c>
+      <c r="G120" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.5">
+      <c r="A121" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="110">
+        <v>2300038499</v>
+      </c>
+      <c r="C121" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="117">
+        <v>3</v>
+      </c>
+      <c r="E121" s="84"/>
+      <c r="F121" s="85">
+        <v>40</v>
+      </c>
+      <c r="G121" s="76">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.5">
+      <c r="A122" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="110">
+        <v>200112216</v>
+      </c>
+      <c r="C122" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="117">
+        <v>4</v>
+      </c>
+      <c r="E122" s="84"/>
+      <c r="F122" s="85">
+        <v>40</v>
+      </c>
+      <c r="G122" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.5">
+      <c r="A123" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="110">
+        <v>200112216</v>
+      </c>
+      <c r="C123" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="117">
+        <v>2</v>
+      </c>
+      <c r="E123" s="84"/>
+      <c r="F123" s="85">
+        <v>40</v>
+      </c>
+      <c r="G123" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.5">
+      <c r="A124" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="117">
+        <v>1</v>
+      </c>
+      <c r="E124" s="84"/>
+      <c r="F124" s="85">
+        <v>40</v>
+      </c>
+      <c r="G124" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.5">
+      <c r="A125" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="110">
+        <v>220243166</v>
+      </c>
+      <c r="C125" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="117">
+        <v>1</v>
+      </c>
+      <c r="E125" s="84"/>
+      <c r="F125" s="85">
+        <v>40</v>
+      </c>
+      <c r="G125" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.5">
+      <c r="A126" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="110">
+        <v>200112217</v>
+      </c>
+      <c r="C126" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="117">
+        <v>4</v>
+      </c>
+      <c r="E126" s="84"/>
+      <c r="F126" s="85">
+        <v>40</v>
+      </c>
+      <c r="G126" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.5">
+      <c r="A127" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="110">
+        <v>200112217</v>
+      </c>
+      <c r="C127" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="117">
+        <v>2</v>
+      </c>
+      <c r="E127" s="84"/>
+      <c r="F127" s="85">
+        <v>40</v>
+      </c>
+      <c r="G127" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.5">
+      <c r="A128" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="110">
+        <v>210835158</v>
+      </c>
+      <c r="C128" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="117">
+        <v>2</v>
+      </c>
+      <c r="E128" s="84"/>
+      <c r="F128" s="85">
+        <v>40</v>
+      </c>
+      <c r="G128" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.5">
+      <c r="A129" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="110">
+        <v>200112217</v>
+      </c>
+      <c r="C129" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D129" s="117">
+        <v>2</v>
+      </c>
+      <c r="E129" s="84"/>
+      <c r="F129" s="85">
+        <v>40</v>
+      </c>
+      <c r="G129" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.5">
+      <c r="A130" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="110">
+        <v>2300059818</v>
+      </c>
+      <c r="C130" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="117">
+        <v>2</v>
+      </c>
+      <c r="E130" s="84"/>
+      <c r="F130" s="85">
+        <v>40</v>
+      </c>
+      <c r="G130" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.5">
+      <c r="A131" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="110">
+        <v>200112217</v>
+      </c>
+      <c r="C131" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="117">
+        <v>3</v>
+      </c>
+      <c r="E131" s="84"/>
+      <c r="F131" s="85">
+        <v>40</v>
+      </c>
+      <c r="G131" s="76">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.5">
+      <c r="A132" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="110">
+        <v>2300007346</v>
+      </c>
+      <c r="C132" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="117">
+        <v>1</v>
+      </c>
+      <c r="E132" s="84"/>
+      <c r="F132" s="85">
+        <v>40</v>
+      </c>
+      <c r="G132" s="76">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.5">
+      <c r="A133" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="110">
+        <v>200112217</v>
+      </c>
+      <c r="C133" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="117">
+        <v>4</v>
+      </c>
+      <c r="E133" s="84"/>
+      <c r="F133" s="85">
+        <v>40</v>
+      </c>
+      <c r="G133" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.5">
+      <c r="A134" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="110">
+        <v>220647532</v>
+      </c>
+      <c r="C134" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" s="117">
+        <v>2</v>
+      </c>
+      <c r="E134" s="84"/>
+      <c r="F134" s="85">
+        <v>40</v>
+      </c>
+      <c r="G134" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.5">
+      <c r="A135" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="110">
+        <v>200112216</v>
+      </c>
+      <c r="C135" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="117">
+        <v>2</v>
+      </c>
+      <c r="E135" s="84"/>
+      <c r="F135" s="85">
+        <v>40</v>
+      </c>
+      <c r="G135" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.5">
+      <c r="A136" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" s="110">
+        <v>200112216</v>
+      </c>
+      <c r="C136" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" s="117">
+        <v>2</v>
+      </c>
+      <c r="E136" s="84"/>
+      <c r="F136" s="85">
+        <v>40</v>
+      </c>
+      <c r="G136" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.5">
+      <c r="A137" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="117">
+        <v>2</v>
+      </c>
+      <c r="E137" s="84"/>
+      <c r="F137" s="85">
+        <v>40</v>
+      </c>
+      <c r="G137" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.5">
+      <c r="A138" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="110">
+        <v>220242605</v>
+      </c>
+      <c r="C138" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" s="117">
+        <v>4</v>
+      </c>
+      <c r="E138" s="84"/>
+      <c r="F138" s="85">
+        <v>40</v>
+      </c>
+      <c r="G138" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.5">
+      <c r="A139" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139" s="117">
+        <v>4</v>
+      </c>
+      <c r="E139" s="84"/>
+      <c r="F139" s="85">
+        <v>40</v>
+      </c>
+      <c r="G139" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.5">
+      <c r="A140" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" s="117">
+        <v>4</v>
+      </c>
+      <c r="E140" s="84"/>
+      <c r="F140" s="85">
+        <v>40</v>
+      </c>
+      <c r="G140" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.5">
+      <c r="A141" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="117">
+        <v>4</v>
+      </c>
+      <c r="E141" s="84"/>
+      <c r="F141" s="85">
+        <v>40</v>
+      </c>
+      <c r="G141" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.5">
+      <c r="A142" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="117">
+        <v>4</v>
+      </c>
+      <c r="E142" s="84"/>
+      <c r="F142" s="85">
+        <v>40</v>
+      </c>
+      <c r="G142" s="76">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.5">
+      <c r="A143" s="120"/>
+      <c r="B143" s="110"/>
+      <c r="C143" s="119"/>
+      <c r="D143" s="118">
+        <f>SUM(D110:D142)</f>
+        <v>88</v>
+      </c>
+      <c r="E143" s="84"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="76"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.5">
+      <c r="A144" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="38">
+        <v>2100004807</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" s="117">
+        <v>6</v>
+      </c>
+      <c r="E144" s="84"/>
+      <c r="F144" s="85">
+        <v>50</v>
+      </c>
+      <c r="G144" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.5">
+      <c r="A145" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="125">
+        <v>2100010641</v>
+      </c>
+      <c r="C145" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" s="117">
+        <v>6</v>
+      </c>
+      <c r="E145" s="84"/>
+      <c r="F145" s="85">
+        <v>50</v>
+      </c>
+      <c r="G145" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.5">
+      <c r="A146" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" s="117">
+        <v>1</v>
+      </c>
+      <c r="E146" s="84"/>
+      <c r="F146" s="85">
+        <v>50</v>
+      </c>
+      <c r="G146" s="76">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.5">
+      <c r="A147" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D147" s="117">
+        <v>5</v>
+      </c>
+      <c r="E147" s="84"/>
+      <c r="F147" s="85">
+        <v>50</v>
+      </c>
+      <c r="G147" s="76">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.5">
+      <c r="A148" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" s="117">
+        <v>6</v>
+      </c>
+      <c r="E148" s="84"/>
+      <c r="F148" s="85">
+        <v>50</v>
+      </c>
+      <c r="G148" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.5">
+      <c r="A149" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="38">
+        <v>2100017484</v>
+      </c>
+      <c r="C149" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D149" s="117">
+        <v>6</v>
+      </c>
+      <c r="E149" s="84"/>
+      <c r="F149" s="85">
+        <v>50</v>
+      </c>
+      <c r="G149" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.5">
+      <c r="A150" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="117">
+        <v>6</v>
+      </c>
+      <c r="E150" s="84"/>
+      <c r="F150" s="85">
+        <v>50</v>
+      </c>
+      <c r="G150" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.5">
+      <c r="A151" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
+      <c r="B151" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="C151" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D151" s="117">
+        <v>6</v>
+      </c>
+      <c r="E151" s="84"/>
+      <c r="F151" s="85">
+        <v>50</v>
+      </c>
+      <c r="G151" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:11" ht="15.5">
+      <c r="A152" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="117">
+        <v>6</v>
+      </c>
+      <c r="E152" s="84"/>
+      <c r="F152" s="85">
+        <v>50</v>
+      </c>
+      <c r="G152" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+    </row>
+    <row r="153" spans="1:11" ht="15.5">
+      <c r="A153" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D153" s="117">
+        <v>6</v>
+      </c>
+      <c r="E153" s="84"/>
+      <c r="F153" s="85">
+        <v>50</v>
+      </c>
+      <c r="G153" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
+    </row>
+    <row r="154" spans="1:11" ht="15.5">
+      <c r="A154" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="D154" s="117">
+        <v>6</v>
+      </c>
+      <c r="E154" s="84"/>
+      <c r="F154" s="85">
+        <v>50</v>
+      </c>
+      <c r="G154" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+    </row>
+    <row r="155" spans="1:11" ht="15.5">
+      <c r="A155" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="117">
+        <v>6</v>
+      </c>
+      <c r="E155" s="84"/>
+      <c r="F155" s="85">
+        <v>50</v>
+      </c>
+      <c r="G155" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.5">
+      <c r="A156" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B156" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="117">
+        <v>6</v>
+      </c>
+      <c r="E156" s="84"/>
+      <c r="F156" s="85">
+        <v>50</v>
+      </c>
+      <c r="G156" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
+    </row>
+    <row r="157" spans="1:11" ht="15.5">
+      <c r="A157" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157" s="117">
+        <v>5</v>
+      </c>
+      <c r="E157" s="84"/>
+      <c r="F157" s="85">
+        <v>50</v>
+      </c>
+      <c r="G157" s="76">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
+    </row>
+    <row r="158" spans="1:11" ht="15.5">
+      <c r="A158" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="117">
         <v>1</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="55">
+      <c r="E158" s="84"/>
+      <c r="F158" s="85">
+        <v>50</v>
+      </c>
+      <c r="G158" s="76">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
+    </row>
+    <row r="159" spans="1:11" ht="15.5">
+      <c r="A159" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="117">
+        <v>5</v>
+      </c>
+      <c r="E159" s="84"/>
+      <c r="F159" s="85">
+        <v>50</v>
+      </c>
+      <c r="G159" s="76">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
+    </row>
+    <row r="160" spans="1:11" ht="15.5">
+      <c r="A160" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B160" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160" s="117">
+        <v>2</v>
+      </c>
+      <c r="E160" s="84"/>
+      <c r="F160" s="85">
+        <v>50</v>
+      </c>
+      <c r="G160" s="76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
+    </row>
+    <row r="161" spans="1:11" ht="15.5">
+      <c r="A161" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161" s="117">
+        <v>4</v>
+      </c>
+      <c r="E161" s="84"/>
+      <c r="F161" s="85">
+        <v>50</v>
+      </c>
+      <c r="G161" s="76">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
+    </row>
+    <row r="162" spans="1:11" ht="15.5">
+      <c r="A162" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="B162" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D162" s="117">
+        <v>2</v>
+      </c>
+      <c r="E162" s="84"/>
+      <c r="F162" s="85">
+        <v>50</v>
+      </c>
+      <c r="G162" s="76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
+    </row>
+    <row r="163" spans="1:11" ht="15.5">
+      <c r="A163" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" s="117">
+        <v>2</v>
+      </c>
+      <c r="E163" s="84"/>
+      <c r="F163" s="85">
+        <v>50</v>
+      </c>
+      <c r="G163" s="76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
+    </row>
+    <row r="164" spans="1:11" ht="15.5">
+      <c r="A164" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D164" s="117">
+        <v>5</v>
+      </c>
+      <c r="E164" s="84"/>
+      <c r="F164" s="85">
+        <v>50</v>
+      </c>
+      <c r="G164" s="76">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+    </row>
+    <row r="165" spans="1:11" ht="15.5">
+      <c r="A165" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="C165" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D165" s="117">
+        <v>2</v>
+      </c>
+      <c r="E165" s="84"/>
+      <c r="F165" s="85">
+        <v>50</v>
+      </c>
+      <c r="G165" s="76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+    </row>
+    <row r="166" spans="1:11" ht="15.5">
+      <c r="A166" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C166" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D166" s="117">
+        <v>2</v>
+      </c>
+      <c r="E166" s="84"/>
+      <c r="F166" s="85">
+        <v>50</v>
+      </c>
+      <c r="G166" s="76">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
+    </row>
+    <row r="167" spans="1:11" ht="15.5">
+      <c r="A167" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" s="117">
+        <v>6</v>
+      </c>
+      <c r="E167" s="84"/>
+      <c r="F167" s="85">
+        <v>50</v>
+      </c>
+      <c r="G167" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+    </row>
+    <row r="168" spans="1:11" ht="15.5">
+      <c r="A168" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D168" s="117">
+        <v>6</v>
+      </c>
+      <c r="E168" s="84"/>
+      <c r="F168" s="85">
+        <v>50</v>
+      </c>
+      <c r="G168" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.5">
+      <c r="A169" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B169" s="38">
+        <v>2100007516</v>
+      </c>
+      <c r="C169" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D169" s="117">
+        <v>6</v>
+      </c>
+      <c r="E169" s="84"/>
+      <c r="F169" s="85">
+        <v>50</v>
+      </c>
+      <c r="G169" s="76">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.5">
+      <c r="A170" s="125" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="125">
+        <v>2100023365</v>
+      </c>
+      <c r="C170" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D170" s="117">
+        <v>4</v>
+      </c>
+      <c r="E170" s="84"/>
+      <c r="F170" s="85">
+        <v>50</v>
+      </c>
+      <c r="G170" s="76">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.5">
+      <c r="A171" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B171" s="114">
+        <v>2100007744</v>
+      </c>
+      <c r="C171" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="D171" s="117">
+        <v>4</v>
+      </c>
+      <c r="E171" s="84"/>
+      <c r="F171" s="85">
+        <v>50</v>
+      </c>
+      <c r="G171" s="76">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.5">
+      <c r="A172" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="C172" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="D172" s="117">
+        <v>4</v>
+      </c>
+      <c r="E172" s="84"/>
+      <c r="F172" s="85">
+        <v>50</v>
+      </c>
+      <c r="G172" s="76">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.5">
+      <c r="A173" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" s="121" t="s">
+        <v>229</v>
+      </c>
+      <c r="D173" s="117">
+        <v>5</v>
+      </c>
+      <c r="E173" s="84"/>
+      <c r="F173" s="85">
+        <v>50</v>
+      </c>
+      <c r="G173" s="76">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.5">
+      <c r="A174" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C174" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174" s="117">
         <v>1</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="52" t="s">
+      <c r="E174" s="84"/>
+      <c r="F174" s="85">
+        <v>50</v>
+      </c>
+      <c r="G174" s="76">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.5">
+      <c r="A175" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="B175" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C175" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175" s="117">
+        <v>4</v>
+      </c>
+      <c r="E175" s="84"/>
+      <c r="F175" s="85">
+        <v>50</v>
+      </c>
+      <c r="G175" s="76">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.5">
+      <c r="A176" s="114"/>
+      <c r="B176" s="114"/>
+      <c r="C176" s="121"/>
+      <c r="D176" s="118">
+        <f>SUM(D144:D175)</f>
+        <v>142</v>
+      </c>
+      <c r="E176" s="84"/>
+      <c r="F176" s="85"/>
+      <c r="G176" s="76"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+    </row>
+    <row r="177" spans="1:11" ht="15.5">
+      <c r="A177" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B177" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C177" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="D177" s="117">
+        <v>2</v>
+      </c>
+      <c r="E177" s="84"/>
+      <c r="F177" s="85">
         <v>40</v>
       </c>
-      <c r="D26" s="55">
+      <c r="G177" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
+    </row>
+    <row r="178" spans="1:11" ht="15.5">
+      <c r="A178" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B178" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C178" s="115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D178" s="117">
         <v>2</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-    </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="E178" s="84"/>
+      <c r="F178" s="85">
+        <v>40</v>
+      </c>
+      <c r="G178" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
+    </row>
+    <row r="179" spans="1:11" ht="15.5">
+      <c r="A179" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="B179" s="110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C179" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D179" s="117">
+        <v>2</v>
+      </c>
+      <c r="E179" s="39"/>
+      <c r="F179" s="75">
+        <v>40</v>
+      </c>
+      <c r="G179" s="76">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
+    </row>
+    <row r="180" spans="1:11" ht="15.5">
+      <c r="A180" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B180" s="110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C180" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D180" s="117">
+        <v>2</v>
+      </c>
+      <c r="E180" s="86"/>
+      <c r="F180" s="75">
+        <v>40</v>
+      </c>
+      <c r="G180" s="76">
+        <f t="shared" ref="G180:G187" si="4">D180*F180</f>
+        <v>80</v>
+      </c>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+    </row>
+    <row r="181" spans="1:11" ht="15.5">
+      <c r="A181" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B181" s="110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C181" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D181" s="117">
+        <v>2</v>
+      </c>
+      <c r="E181" s="86"/>
+      <c r="F181" s="75">
+        <v>40</v>
+      </c>
+      <c r="G181" s="76">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.5">
+      <c r="A182" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="B182" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C182" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="D182" s="117">
+        <v>2</v>
+      </c>
+      <c r="E182" s="86"/>
+      <c r="F182" s="75">
+        <v>40</v>
+      </c>
+      <c r="G182" s="76">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+    </row>
+    <row r="183" spans="1:11" ht="15.5">
+      <c r="A183" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B183" s="110" t="s">
+        <v>253</v>
+      </c>
+      <c r="C183" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="D183" s="117">
+        <v>2</v>
+      </c>
+      <c r="E183" s="86"/>
+      <c r="F183" s="75">
+        <v>40</v>
+      </c>
+      <c r="G183" s="76">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="1:11" ht="15.5">
+      <c r="A184" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B184" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C184" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="D184" s="117">
+        <v>2</v>
+      </c>
+      <c r="E184" s="86"/>
+      <c r="F184" s="75">
+        <v>40</v>
+      </c>
+      <c r="G184" s="76">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+    </row>
+    <row r="185" spans="1:11" ht="15.5">
+      <c r="A185" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="B185" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D185" s="117">
+        <v>2</v>
+      </c>
+      <c r="E185" s="86"/>
+      <c r="F185" s="75">
+        <v>40</v>
+      </c>
+      <c r="G185" s="76">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+    </row>
+    <row r="186" spans="1:11" ht="15.5">
+      <c r="A186" s="120"/>
+      <c r="B186" s="110"/>
+      <c r="C186" s="115"/>
+      <c r="D186" s="116">
+        <f>SUM(D177:D185)</f>
+        <v>18</v>
+      </c>
+      <c r="E186" s="88"/>
+      <c r="F186" s="87"/>
+      <c r="G186" s="87"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
+    </row>
+    <row r="187" spans="1:11" ht="15.5">
+      <c r="A187" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" s="126">
+        <v>210228152</v>
+      </c>
+      <c r="C187" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="D187" s="128">
+        <v>6</v>
+      </c>
+      <c r="E187" s="129"/>
+      <c r="F187" s="75">
+        <v>40</v>
+      </c>
+      <c r="G187" s="76">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
+    </row>
+    <row r="188" spans="1:11" ht="22" customHeight="1">
+      <c r="A188" s="130"/>
+      <c r="B188" s="130"/>
+      <c r="C188" s="130"/>
+      <c r="D188" s="130"/>
+      <c r="E188" s="130"/>
+      <c r="F188" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="G188" s="135">
+        <v>40650</v>
+      </c>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+    </row>
+    <row r="189" spans="1:11" ht="15.5">
+      <c r="A189" s="130"/>
+      <c r="B189" s="130"/>
+      <c r="C189" s="130"/>
+      <c r="D189" s="130"/>
+      <c r="E189" s="130"/>
+      <c r="F189" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="G189" s="136" t="s">
+        <v>503</v>
+      </c>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.5">
+      <c r="A190" s="130"/>
+      <c r="B190" s="130"/>
+      <c r="C190" s="130"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="130"/>
+      <c r="F190" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="G190" s="136" t="s">
+        <v>504</v>
+      </c>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
+    </row>
+    <row r="191" spans="1:11" ht="15.5">
+      <c r="A191" s="130"/>
+      <c r="B191" s="130"/>
+      <c r="C191" s="130"/>
+      <c r="D191" s="130"/>
+      <c r="E191" s="130"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
+    </row>
+    <row r="192" spans="1:11" ht="18">
+      <c r="A192" s="93"/>
+      <c r="B192" s="107"/>
+      <c r="C192" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="D192" s="107"/>
+      <c r="E192" s="93"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+    </row>
+    <row r="193" spans="1:11" ht="15.5">
+      <c r="A193" s="37"/>
+      <c r="B193" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" s="113" t="s">
+        <v>426</v>
+      </c>
+      <c r="D193" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="E193" s="37"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+    </row>
+    <row r="194" spans="1:11" ht="15.5">
+      <c r="A194" s="37"/>
+      <c r="B194" s="111">
+        <v>2</v>
+      </c>
+      <c r="C194" s="112" t="s">
+        <v>428</v>
+      </c>
+      <c r="D194" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="E194" s="37"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+    </row>
+    <row r="195" spans="1:11" ht="15.5">
+      <c r="A195" s="37"/>
+      <c r="B195" s="111">
+        <v>1</v>
+      </c>
+      <c r="C195" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="D195" s="112" t="s">
+        <v>431</v>
+      </c>
+      <c r="E195" s="37"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
+    </row>
+    <row r="196" spans="1:11" ht="15.5">
+      <c r="A196" s="37"/>
+      <c r="B196" s="111">
+        <v>1</v>
+      </c>
+      <c r="C196" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D196" s="112" t="s">
+        <v>433</v>
+      </c>
+      <c r="E196" s="37"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
+    </row>
+    <row r="197" spans="1:11" ht="15.5">
+      <c r="A197" s="37"/>
+      <c r="B197" s="111">
+        <v>1</v>
+      </c>
+      <c r="C197" s="112" t="s">
+        <v>434</v>
+      </c>
+      <c r="D197" s="112" t="s">
+        <v>435</v>
+      </c>
+      <c r="E197" s="37"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+    </row>
+    <row r="198" spans="1:11" ht="15.5">
+      <c r="A198" s="37"/>
+      <c r="B198" s="111">
+        <v>2</v>
+      </c>
+      <c r="C198" s="112" t="s">
+        <v>436</v>
+      </c>
+      <c r="D198" s="112" t="s">
+        <v>437</v>
+      </c>
+      <c r="E198" s="37"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+    </row>
+    <row r="199" spans="1:11" ht="15.5">
+      <c r="A199" s="37"/>
+      <c r="B199" s="111">
+        <v>1</v>
+      </c>
+      <c r="C199" s="112" t="s">
+        <v>438</v>
+      </c>
+      <c r="D199" s="112" t="s">
+        <v>439</v>
+      </c>
+      <c r="E199" s="37"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
+    </row>
+    <row r="200" spans="1:11" ht="15.5">
+      <c r="A200" s="37"/>
+      <c r="B200" s="111">
+        <v>2</v>
+      </c>
+      <c r="C200" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="D200" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="E200" s="37"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
+    </row>
+    <row r="201" spans="1:11" ht="15.5">
+      <c r="A201" s="37"/>
+      <c r="B201" s="111">
+        <v>1</v>
+      </c>
+      <c r="C201" s="112" t="s">
+        <v>442</v>
+      </c>
+      <c r="D201" s="112" t="s">
+        <v>443</v>
+      </c>
+      <c r="E201" s="37"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
+    </row>
+    <row r="202" spans="1:11" ht="15.5">
+      <c r="A202" s="37"/>
+      <c r="B202" s="111">
+        <v>2</v>
+      </c>
+      <c r="C202" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="D202" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="E202" s="37"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
+    </row>
+    <row r="203" spans="1:11" ht="15.5">
+      <c r="A203" s="37"/>
+      <c r="B203" s="111">
+        <v>1</v>
+      </c>
+      <c r="C203" s="112" t="s">
+        <v>446</v>
+      </c>
+      <c r="D203" s="112" t="s">
+        <v>447</v>
+      </c>
+      <c r="E203" s="37"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
+    </row>
+    <row r="204" spans="1:11" ht="15.5">
+      <c r="A204" s="37"/>
+      <c r="B204" s="111">
+        <v>1</v>
+      </c>
+      <c r="C204" s="112" t="s">
+        <v>448</v>
+      </c>
+      <c r="D204" s="112" t="s">
+        <v>449</v>
+      </c>
+      <c r="E204" s="37"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
+    </row>
+    <row r="205" spans="1:11" ht="15.5">
+      <c r="A205" s="37"/>
+      <c r="B205" s="111">
+        <v>1</v>
+      </c>
+      <c r="C205" s="112" t="s">
+        <v>450</v>
+      </c>
+      <c r="D205" s="112" t="s">
+        <v>451</v>
+      </c>
+      <c r="E205" s="37"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
+    </row>
+    <row r="206" spans="1:11" ht="15.5">
+      <c r="A206" s="37"/>
+      <c r="B206" s="122">
+        <f>SUM(B194:B205)</f>
+        <v>16</v>
+      </c>
+      <c r="C206" s="123"/>
+      <c r="D206" s="123"/>
+      <c r="E206" s="37"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.5">
+      <c r="A207" s="37"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
+    </row>
+    <row r="208" spans="1:11" ht="18">
+      <c r="A208" s="37"/>
+      <c r="B208" s="131"/>
+      <c r="C208" s="124" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+    </row>
+    <row r="209" spans="1:11" ht="18">
+      <c r="A209" s="37"/>
+      <c r="B209" s="124" t="s">
+        <v>453</v>
+      </c>
+      <c r="C209" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
+    </row>
+    <row r="210" spans="1:11" ht="21">
+      <c r="A210" s="37"/>
+      <c r="B210" s="132"/>
+      <c r="C210" s="133" t="s">
+        <v>455</v>
+      </c>
+      <c r="D210" s="37"/>
+      <c r="E210" s="37"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+    </row>
+    <row r="211" spans="1:11" ht="15.5">
+      <c r="A211" s="37"/>
+      <c r="B211" s="111">
+        <v>1</v>
+      </c>
+      <c r="C211" s="115" t="s">
+        <v>456</v>
+      </c>
+      <c r="D211" s="37"/>
+      <c r="E211" s="37"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+    </row>
+    <row r="212" spans="1:11" ht="15.5">
+      <c r="A212" s="37"/>
+      <c r="B212" s="111">
+        <v>2</v>
+      </c>
+      <c r="C212" s="115" t="s">
+        <v>457</v>
+      </c>
+      <c r="D212" s="37"/>
+      <c r="E212" s="37"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
+    </row>
+    <row r="213" spans="1:11" ht="15.5">
+      <c r="A213" s="37"/>
+      <c r="B213" s="111">
+        <v>3</v>
+      </c>
+      <c r="C213" s="115" t="s">
+        <v>458</v>
+      </c>
+      <c r="D213" s="37"/>
+      <c r="E213" s="37"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
+    </row>
+    <row r="214" spans="1:11" ht="15.5">
+      <c r="A214" s="37"/>
+      <c r="B214" s="111">
+        <v>1</v>
+      </c>
+      <c r="C214" s="115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D214" s="37"/>
+      <c r="E214" s="37"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
+    </row>
+    <row r="215" spans="1:11" ht="15.5">
+      <c r="A215" s="37"/>
+      <c r="B215" s="111">
+        <v>1</v>
+      </c>
+      <c r="C215" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
+    </row>
+    <row r="216" spans="1:11" ht="15.5">
+      <c r="A216" s="37"/>
+      <c r="B216" s="111">
+        <v>2</v>
+      </c>
+      <c r="C216" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="D216" s="37"/>
+      <c r="E216" s="37"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="36"/>
+    </row>
+    <row r="217" spans="1:11" ht="15.5">
+      <c r="A217" s="37"/>
+      <c r="B217" s="111">
+        <v>2</v>
+      </c>
+      <c r="C217" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="D217" s="37"/>
+      <c r="E217" s="37"/>
+      <c r="J217" s="36"/>
+      <c r="K217" s="36"/>
+    </row>
+    <row r="218" spans="1:11" ht="15.5">
+      <c r="A218" s="37"/>
+      <c r="B218" s="111">
+        <v>1</v>
+      </c>
+      <c r="C218" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="D218" s="37"/>
+      <c r="E218" s="37"/>
+      <c r="J218" s="36"/>
+      <c r="K218" s="36"/>
+    </row>
+    <row r="219" spans="1:11" ht="15.5">
+      <c r="A219" s="37"/>
+      <c r="B219" s="111">
+        <v>1</v>
+      </c>
+      <c r="C219" s="115" t="s">
+        <v>464</v>
+      </c>
+      <c r="D219" s="37"/>
+      <c r="E219" s="37"/>
+      <c r="J219" s="36"/>
+      <c r="K219" s="36"/>
+    </row>
+    <row r="220" spans="1:11" ht="15.5">
+      <c r="A220" s="37"/>
+      <c r="B220" s="111">
+        <v>1</v>
+      </c>
+      <c r="C220" s="115" t="s">
+        <v>465</v>
+      </c>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
+    </row>
+    <row r="221" spans="1:11" ht="15.5">
+      <c r="A221" s="37"/>
+      <c r="B221" s="111">
+        <v>2</v>
+      </c>
+      <c r="C221" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="D221" s="37"/>
+      <c r="E221" s="37"/>
+      <c r="J221" s="36"/>
+      <c r="K221" s="36"/>
+    </row>
+    <row r="222" spans="1:11" ht="15.5">
+      <c r="A222" s="37"/>
+      <c r="B222" s="111">
+        <v>2</v>
+      </c>
+      <c r="C222" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="D222" s="37"/>
+      <c r="E222" s="37"/>
+      <c r="J222" s="36"/>
+      <c r="K222" s="36"/>
+    </row>
+    <row r="223" spans="1:11" ht="15.5">
+      <c r="A223" s="37"/>
+      <c r="B223" s="111">
+        <v>1</v>
+      </c>
+      <c r="C223" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D223" s="37"/>
+      <c r="E223" s="37"/>
+      <c r="J223" s="36"/>
+      <c r="K223" s="36"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.5">
+      <c r="A224" s="37"/>
+      <c r="B224" s="111">
+        <v>1</v>
+      </c>
+      <c r="C224" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D224" s="37"/>
+      <c r="E224" s="37"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="36"/>
+    </row>
+    <row r="225" spans="1:11" ht="15.5">
+      <c r="A225" s="37"/>
+      <c r="B225" s="111">
+        <v>2</v>
+      </c>
+      <c r="C225" s="115" t="s">
+        <v>470</v>
+      </c>
+      <c r="D225" s="37"/>
+      <c r="E225" s="37"/>
+      <c r="J225" s="36"/>
+      <c r="K225" s="36"/>
+    </row>
+    <row r="226" spans="1:11" ht="15.5">
+      <c r="A226" s="37"/>
+      <c r="B226" s="111"/>
+      <c r="C226" s="115" t="s">
+        <v>471</v>
+      </c>
+      <c r="D226" s="37"/>
+      <c r="E226" s="37"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="36"/>
+    </row>
+    <row r="227" spans="1:11" ht="15.5">
+      <c r="A227" s="37"/>
+      <c r="B227" s="122">
+        <f>SUM(B211:B226)</f>
+        <v>23</v>
+      </c>
+      <c r="C227" s="115"/>
+      <c r="D227" s="37"/>
+      <c r="E227" s="37"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="36"/>
+    </row>
+    <row r="228" spans="1:11" ht="15.5">
+      <c r="A228" s="37"/>
+      <c r="B228" s="122"/>
+      <c r="C228" s="122" t="s">
+        <v>472</v>
+      </c>
+      <c r="D228" s="37"/>
+      <c r="E228" s="37"/>
+      <c r="J228" s="36"/>
+      <c r="K228" s="36"/>
+    </row>
+    <row r="229" spans="1:11" ht="15.5">
+      <c r="A229" s="37"/>
+      <c r="B229" s="111">
+        <v>2</v>
+      </c>
+      <c r="C229" s="115" t="s">
+        <v>473</v>
+      </c>
+      <c r="D229" s="37"/>
+      <c r="E229" s="37"/>
+      <c r="J229" s="36"/>
+      <c r="K229" s="36"/>
+    </row>
+    <row r="230" spans="1:11" ht="15.5">
+      <c r="A230" s="37"/>
+      <c r="B230" s="111">
+        <v>2</v>
+      </c>
+      <c r="C230" s="115" t="s">
+        <v>474</v>
+      </c>
+      <c r="D230" s="37"/>
+      <c r="E230" s="37"/>
+      <c r="J230" s="36"/>
+      <c r="K230" s="36"/>
+    </row>
+    <row r="231" spans="1:11" ht="15.5">
+      <c r="A231" s="37"/>
+      <c r="B231" s="111">
+        <v>1</v>
+      </c>
+      <c r="C231" s="115" t="s">
+        <v>475</v>
+      </c>
+      <c r="D231" s="37"/>
+      <c r="E231" s="37"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
+    </row>
+    <row r="232" spans="1:11" ht="15.5">
+      <c r="A232" s="37"/>
+      <c r="B232" s="111">
+        <v>3</v>
+      </c>
+      <c r="C232" s="115" t="s">
+        <v>476</v>
+      </c>
+      <c r="D232" s="37"/>
+      <c r="E232" s="37"/>
+      <c r="J232" s="36"/>
+      <c r="K232" s="36"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.5">
+      <c r="A233" s="37"/>
+      <c r="B233" s="111">
+        <v>1</v>
+      </c>
+      <c r="C233" s="115" t="s">
+        <v>477</v>
+      </c>
+      <c r="D233" s="37"/>
+      <c r="E233" s="37"/>
+      <c r="J233" s="36"/>
+      <c r="K233" s="36"/>
+    </row>
+    <row r="234" spans="1:11" ht="15.5">
+      <c r="A234" s="37"/>
+      <c r="B234" s="111">
+        <v>1</v>
+      </c>
+      <c r="C234" s="115" t="s">
+        <v>478</v>
+      </c>
+      <c r="D234" s="37"/>
+      <c r="E234" s="37"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="36"/>
+    </row>
+    <row r="235" spans="1:11" ht="15.5">
+      <c r="A235" s="37"/>
+      <c r="B235" s="111">
+        <v>1</v>
+      </c>
+      <c r="C235" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="D235" s="37"/>
+      <c r="E235" s="37"/>
+      <c r="J235" s="36"/>
+      <c r="K235" s="36"/>
+    </row>
+    <row r="236" spans="1:11" ht="15.5">
+      <c r="A236" s="37"/>
+      <c r="B236" s="111">
+        <v>1</v>
+      </c>
+      <c r="C236" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="D236" s="37"/>
+      <c r="E236" s="37"/>
+      <c r="J236" s="36"/>
+      <c r="K236" s="36"/>
+    </row>
+    <row r="237" spans="1:11" ht="15.5">
+      <c r="A237" s="37"/>
+      <c r="B237" s="111">
+        <v>1</v>
+      </c>
+      <c r="C237" s="115" t="s">
+        <v>480</v>
+      </c>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
+      <c r="J237" s="36"/>
+      <c r="K237" s="36"/>
+    </row>
+    <row r="238" spans="1:11" ht="15.5">
+      <c r="A238" s="37"/>
+      <c r="B238" s="111">
+        <v>2</v>
+      </c>
+      <c r="C238" s="115" t="s">
+        <v>481</v>
+      </c>
+      <c r="D238" s="37"/>
+      <c r="E238" s="37"/>
+      <c r="J238" s="36"/>
+      <c r="K238" s="36"/>
+    </row>
+    <row r="239" spans="1:11" ht="15.5">
+      <c r="A239" s="37"/>
+      <c r="B239" s="111">
+        <v>2</v>
+      </c>
+      <c r="C239" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239" s="37"/>
+      <c r="E239" s="37"/>
+      <c r="J239" s="36"/>
+      <c r="K239" s="36"/>
+    </row>
+    <row r="240" spans="1:11" ht="15.5">
+      <c r="A240" s="37"/>
+      <c r="B240" s="111">
+        <v>3</v>
+      </c>
+      <c r="C240" s="115" t="s">
+        <v>483</v>
+      </c>
+      <c r="D240" s="37"/>
+      <c r="E240" s="37"/>
+      <c r="J240" s="36"/>
+      <c r="K240" s="36"/>
+    </row>
+    <row r="241" spans="1:11" ht="15.5">
+      <c r="A241" s="37"/>
+      <c r="B241" s="111">
+        <v>1</v>
+      </c>
+      <c r="C241" s="115" t="s">
+        <v>484</v>
+      </c>
+      <c r="D241" s="37"/>
+      <c r="E241" s="37"/>
+      <c r="J241" s="36"/>
+      <c r="K241" s="36"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.5">
+      <c r="A242" s="37"/>
+      <c r="B242" s="111">
+        <v>2</v>
+      </c>
+      <c r="C242" s="115" t="s">
+        <v>485</v>
+      </c>
+      <c r="D242" s="37"/>
+      <c r="E242" s="37"/>
+      <c r="J242" s="36"/>
+      <c r="K242" s="36"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.5">
+      <c r="A243" s="37"/>
+      <c r="B243" s="111">
+        <v>1</v>
+      </c>
+      <c r="C243" s="115" t="s">
+        <v>430</v>
+      </c>
+      <c r="D243" s="37"/>
+      <c r="E243" s="37"/>
+      <c r="J243" s="36"/>
+      <c r="K243" s="36"/>
+    </row>
+    <row r="244" spans="1:11" ht="15.5">
+      <c r="A244" s="37"/>
+      <c r="B244" s="111">
+        <v>1</v>
+      </c>
+      <c r="C244" s="115" t="s">
+        <v>486</v>
+      </c>
+      <c r="D244" s="37"/>
+      <c r="E244" s="37"/>
+      <c r="J244" s="36"/>
+      <c r="K244" s="36"/>
+    </row>
+    <row r="245" spans="1:11" ht="15.5">
+      <c r="A245" s="37"/>
+      <c r="B245" s="111">
+        <v>1</v>
+      </c>
+      <c r="C245" s="115" t="s">
+        <v>487</v>
+      </c>
+      <c r="D245" s="37"/>
+      <c r="E245" s="37"/>
+      <c r="J245" s="36"/>
+      <c r="K245" s="36"/>
+    </row>
+    <row r="246" spans="1:11" ht="15.5">
+      <c r="A246" s="37"/>
+      <c r="B246" s="122">
+        <f>SUM(B229:B245)</f>
+        <v>26</v>
+      </c>
+      <c r="C246" s="115"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="37"/>
+      <c r="J246" s="36"/>
+      <c r="K246" s="36"/>
+    </row>
+    <row r="247" spans="1:11" ht="15.5">
+      <c r="A247" s="37"/>
+      <c r="B247" s="122"/>
+      <c r="C247" s="122" t="s">
+        <v>488</v>
+      </c>
+      <c r="D247" s="37"/>
+      <c r="E247" s="37"/>
+      <c r="J247" s="36"/>
+      <c r="K247" s="36"/>
+    </row>
+    <row r="248" spans="1:11" ht="15.5">
+      <c r="A248" s="37"/>
+      <c r="B248" s="111">
+        <v>2</v>
+      </c>
+      <c r="C248" s="115" t="s">
+        <v>489</v>
+      </c>
+      <c r="D248" s="37"/>
+      <c r="E248" s="37"/>
+      <c r="J248" s="36"/>
+      <c r="K248" s="36"/>
+    </row>
+    <row r="249" spans="1:11" ht="15.5">
+      <c r="A249" s="37"/>
+      <c r="B249" s="111">
+        <v>1</v>
+      </c>
+      <c r="C249" s="115" t="s">
+        <v>490</v>
+      </c>
+      <c r="D249" s="37"/>
+      <c r="E249" s="37"/>
+      <c r="J249" s="36"/>
+      <c r="K249" s="36"/>
+    </row>
+    <row r="250" spans="1:11" ht="15.5">
+      <c r="A250" s="37"/>
+      <c r="B250" s="111">
+        <v>1</v>
+      </c>
+      <c r="C250" s="115" t="s">
+        <v>491</v>
+      </c>
+      <c r="D250" s="37"/>
+      <c r="E250" s="37"/>
+      <c r="J250" s="36"/>
+      <c r="K250" s="36"/>
+    </row>
+    <row r="251" spans="1:11" ht="15.5">
+      <c r="A251" s="37"/>
+      <c r="B251" s="111">
+        <v>1</v>
+      </c>
+      <c r="C251" s="115" t="s">
+        <v>492</v>
+      </c>
+      <c r="D251" s="37"/>
+      <c r="E251" s="37"/>
+      <c r="J251" s="36"/>
+      <c r="K251" s="36"/>
+    </row>
+    <row r="252" spans="1:11" ht="15.5">
+      <c r="A252" s="37"/>
+      <c r="B252" s="111">
+        <v>2</v>
+      </c>
+      <c r="C252" s="134" t="s">
+        <v>493</v>
+      </c>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="J252" s="36"/>
+      <c r="K252" s="36"/>
+    </row>
+    <row r="253" spans="1:11" ht="15.5">
+      <c r="A253" s="37"/>
+      <c r="B253" s="111">
+        <v>2</v>
+      </c>
+      <c r="C253" s="115" t="s">
+        <v>494</v>
+      </c>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
+      <c r="J253" s="36"/>
+      <c r="K253" s="36"/>
+    </row>
+    <row r="254" spans="1:11" ht="15.5">
+      <c r="A254" s="37"/>
+      <c r="B254" s="111">
+        <v>2</v>
+      </c>
+      <c r="C254" s="115" t="s">
+        <v>495</v>
+      </c>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
+      <c r="J254" s="36"/>
+      <c r="K254" s="36"/>
+    </row>
+    <row r="255" spans="1:11" ht="15.5">
+      <c r="A255" s="37"/>
+      <c r="B255" s="111">
+        <v>1</v>
+      </c>
+      <c r="C255" s="134" t="s">
+        <v>496</v>
+      </c>
+      <c r="D255" s="37"/>
+      <c r="E255" s="37"/>
+      <c r="J255" s="36"/>
+      <c r="K255" s="36"/>
+    </row>
+    <row r="256" spans="1:11" ht="15.5">
+      <c r="A256" s="37"/>
+      <c r="B256" s="111">
+        <v>2</v>
+      </c>
+      <c r="C256" s="115" t="s">
+        <v>497</v>
+      </c>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="J256" s="36"/>
+      <c r="K256" s="36"/>
+    </row>
+    <row r="257" spans="1:11" ht="15.5">
+      <c r="A257" s="37"/>
+      <c r="B257" s="111">
+        <v>1</v>
+      </c>
+      <c r="C257" s="115" t="s">
+        <v>498</v>
+      </c>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
+      <c r="J257" s="36"/>
+      <c r="K257" s="36"/>
+    </row>
+    <row r="258" spans="1:11" ht="15.5">
+      <c r="A258" s="37"/>
+      <c r="B258" s="122">
+        <f>SUM(B248:B257)</f>
+        <v>15</v>
+      </c>
+      <c r="C258" s="115"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="37"/>
+      <c r="J258" s="36"/>
+      <c r="K258" s="36"/>
+    </row>
+    <row r="259" spans="1:11" ht="15.5">
+      <c r="A259" s="37"/>
+      <c r="B259" s="111"/>
+      <c r="C259" s="115"/>
+      <c r="D259" s="37"/>
+      <c r="E259" s="37"/>
+      <c r="J259" s="36"/>
+      <c r="K259" s="36"/>
+    </row>
+    <row r="260" spans="1:11" ht="15.5">
+      <c r="A260" s="37"/>
+      <c r="B260" s="110">
+        <v>1</v>
+      </c>
+      <c r="C260" s="115" t="s">
+        <v>505</v>
+      </c>
+      <c r="D260" s="37"/>
+      <c r="E260" s="37"/>
+      <c r="J260" s="36"/>
+      <c r="K260" s="36"/>
+    </row>
+    <row r="261" spans="1:11" ht="15.5">
+      <c r="A261" s="37"/>
+      <c r="B261" s="110">
+        <v>6</v>
+      </c>
+      <c r="C261" s="115" t="s">
+        <v>499</v>
+      </c>
+      <c r="D261" s="37"/>
+      <c r="E261" s="37"/>
+      <c r="J261" s="36"/>
+      <c r="K261" s="36"/>
+    </row>
+    <row r="262" spans="1:11" ht="15.5">
+      <c r="A262" s="37"/>
+      <c r="B262" s="110">
+        <v>1</v>
+      </c>
+      <c r="C262" s="115" t="s">
+        <v>500</v>
+      </c>
+      <c r="D262" s="37"/>
+      <c r="E262" s="37"/>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
+    </row>
+    <row r="263" spans="1:11" ht="15.5">
+      <c r="A263" s="37"/>
+      <c r="B263" s="110">
+        <v>1</v>
+      </c>
+      <c r="C263" s="115" t="s">
+        <v>501</v>
+      </c>
+      <c r="D263" s="37"/>
+      <c r="E263" s="37"/>
+      <c r="J263" s="36"/>
+      <c r="K263" s="36"/>
+    </row>
+    <row r="264" spans="1:11" ht="15.5">
+      <c r="A264" s="37"/>
+      <c r="B264" s="110">
+        <v>1</v>
+      </c>
+      <c r="C264" s="115" t="s">
+        <v>502</v>
+      </c>
+      <c r="D264" s="37"/>
+      <c r="E264" s="37"/>
+      <c r="J264" s="36"/>
+      <c r="K264" s="36"/>
+    </row>
+    <row r="265" spans="1:11" ht="15.5">
+      <c r="A265" s="37"/>
+      <c r="B265" s="110">
+        <v>2</v>
+      </c>
+      <c r="C265" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="D265" s="37"/>
+      <c r="E265" s="37"/>
+      <c r="J265" s="36"/>
+      <c r="K265" s="36"/>
+    </row>
+    <row r="266" spans="1:11" ht="15.5">
+      <c r="A266" s="37"/>
+      <c r="B266" s="113">
+        <f>SUM(B260:B265)</f>
+        <v>12</v>
+      </c>
+      <c r="C266" s="100"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="37"/>
+      <c r="J266" s="36"/>
+      <c r="K266" s="36"/>
+    </row>
+    <row r="267" spans="1:11" ht="17.5">
+      <c r="A267" s="42"/>
+      <c r="B267" s="42"/>
+      <c r="C267" s="42"/>
+      <c r="D267" s="43"/>
+      <c r="E267" s="34"/>
+      <c r="J267" s="36"/>
+      <c r="K267" s="36"/>
+    </row>
+    <row r="268" spans="1:11" ht="17.5">
+      <c r="A268" s="44"/>
+      <c r="B268" s="44"/>
+      <c r="C268" s="45"/>
+      <c r="D268" s="46"/>
+      <c r="E268" s="34"/>
+      <c r="J268" s="36"/>
+      <c r="K268" s="36"/>
+    </row>
+    <row r="269" spans="1:11" ht="17.5">
+      <c r="A269" s="44"/>
+      <c r="B269" s="44"/>
+      <c r="C269" s="45"/>
+      <c r="D269" s="46"/>
+      <c r="E269" s="34"/>
+      <c r="J269" s="36"/>
+      <c r="K269" s="36"/>
+    </row>
+    <row r="270" spans="1:11" ht="15.5">
+      <c r="A270" s="47"/>
+      <c r="B270" s="47"/>
+      <c r="C270" s="48"/>
+      <c r="D270" s="49"/>
+      <c r="E270" s="50"/>
+    </row>
+    <row r="271" spans="1:11" ht="15.5">
+      <c r="A271" s="47"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="48"/>
+      <c r="D271" s="49"/>
+      <c r="E271" s="50"/>
+    </row>
+    <row r="272" spans="1:11" ht="18" thickBot="1">
+      <c r="A272" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B272" s="52"/>
+      <c r="C272" s="53"/>
+    </row>
+    <row r="273" spans="1:3" ht="17.5">
+      <c r="A273" s="51"/>
+      <c r="B273" s="52"/>
+      <c r="C273" s="54"/>
+    </row>
+    <row r="274" spans="1:3" ht="17.5">
+      <c r="A274" s="51"/>
+      <c r="B274" s="55"/>
+      <c r="C274" s="55"/>
+    </row>
+    <row r="275" spans="1:3" ht="18" thickBot="1">
+      <c r="A275" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="B275" s="55"/>
+      <c r="C275" s="56"/>
+    </row>
+    <row r="276" spans="1:3" ht="17.5">
+      <c r="A276" s="51"/>
+      <c r="B276" s="55"/>
+      <c r="C276" s="55"/>
+    </row>
+    <row r="277" spans="1:3" ht="17.5">
+      <c r="A277" s="51"/>
+    </row>
+    <row r="278" spans="1:3" ht="18" thickBot="1">
+      <c r="A278" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="55">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="54"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="47"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="47"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="47"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68" t="s">
+      <c r="C278" s="57"/>
+    </row>
+    <row r="279" spans="1:3" ht="17.5">
+      <c r="A279" s="51"/>
+    </row>
+    <row r="280" spans="1:3" ht="17.5">
+      <c r="A280" s="51"/>
+    </row>
+    <row r="281" spans="1:3" ht="18" thickBot="1">
+      <c r="A281" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="71"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="C281" s="57"/>
+    </row>
+    <row r="282" spans="1:3" ht="17.5">
+      <c r="A282" s="51"/>
+    </row>
+    <row r="283" spans="1:3" ht="17.5">
+      <c r="A283" s="51"/>
+    </row>
+    <row r="284" spans="1:3" ht="18" thickBot="1">
+      <c r="A284" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="74"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="74"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-    </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="74"/>
+      <c r="C284" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J5:K6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K6"/>
   </mergeCells>
+  <conditionalFormatting sqref="A100:A179">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
